--- a/src/test/resources/content/5tom-content.xlsx
+++ b/src/test/resources/content/5tom-content.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\ayfaar\ii-app\src\test\resources\content\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="960" yWindow="0" windowWidth="19500" windowHeight="2520"/>
+    <workbookView xWindow="1920" yWindow="0" windowWidth="19500" windowHeight="2520"/>
   </bookViews>
   <sheets>
     <sheet name="Том 5" sheetId="14" r:id="rId1"/>
@@ -22,7 +27,7 @@
     <author>Adrian Gressen</author>
   </authors>
   <commentList>
-    <comment ref="B370" authorId="0">
+    <comment ref="B370" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="1326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="1325">
   <si>
     <t>1.1</t>
   </si>
@@ -3353,9 +3358,6 @@
     <t xml:space="preserve">Проблемы в работе мозга при просмотре порнографии. Чем ниже сексуальная активность в пожилом возрасте, тем больше вероятность болезни Альцгеймера. Но здесь также обязательно следует выполнять непрерывные интеллектуальные тренировки. Конечно, в Самосознании активны не только самые низкие Уровни первой пары Центров. Гормональная активность при активности ИНГЛИМИЛИССА-Центра. </t>
   </si>
   <si>
-    <t>5.1430</t>
-  </si>
-  <si>
     <t>Глава 5. Роль молекулы ДНК в организации энергоинформационной активности Формо-Творцов АРГЛЛААМУНИ-Центра</t>
   </si>
   <si>
@@ -4054,8 +4056,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4260,7 +4262,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4292,9 +4294,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4326,6 +4329,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -4501,49 +4505,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC720"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A528" workbookViewId="0">
+      <selection activeCell="C529" sqref="C529"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" style="5" customWidth="1"/>
     <col min="2" max="2" width="98.140625" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="46.5">
+    <row r="1" spans="1:4" ht="46.5" x14ac:dyDescent="0.25">
       <c r="B1" s="6" t="s">
         <v>261</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" ht="69.75">
+    <row r="2" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="90">
+    <row r="3" spans="1:4" ht="102" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="39">
+    <row r="4" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>284</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="54">
+    <row r="5" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -4557,12 +4561,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="72">
+    <row r="6" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>264</v>
@@ -4571,19 +4575,19 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="90">
+    <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>265</v>
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="72">
+    <row r="8" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>3</v>
       </c>
@@ -4595,19 +4599,19 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="54">
+    <row r="9" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>267</v>
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="72">
+    <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -4619,7 +4623,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="54">
+    <row r="11" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -4631,7 +4635,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="72">
+    <row r="12" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>7</v>
       </c>
@@ -4643,43 +4647,43 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="72">
+    <row r="13" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>138</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>274</v>
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="54">
+    <row r="14" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>139</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>275</v>
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="90">
+    <row r="15" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>140</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>276</v>
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" ht="90">
+    <row r="16" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>141</v>
       </c>
@@ -4691,19 +4695,19 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" ht="108">
+    <row r="17" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>142</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>278</v>
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" ht="72">
+    <row r="18" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>143</v>
       </c>
@@ -4715,7 +4719,7 @@
       </c>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="1:4" ht="90">
+    <row r="19" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>144</v>
       </c>
@@ -4727,7 +4731,7 @@
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" ht="90">
+    <row r="20" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>145</v>
       </c>
@@ -4735,35 +4739,35 @@
         <v>280</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" ht="108">
+    <row r="21" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>146</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="72">
+    <row r="22" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>147</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>371</v>
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="108">
+    <row r="23" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>155</v>
       </c>
@@ -4775,7 +4779,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="36">
+    <row r="24" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>156</v>
       </c>
@@ -4783,11 +4787,11 @@
         <v>282</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" ht="90">
+    <row r="25" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>205</v>
       </c>
@@ -4795,11 +4799,11 @@
         <v>552</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" ht="90">
+    <row r="26" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>206</v>
       </c>
@@ -4807,11 +4811,11 @@
         <v>586</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" ht="90">
+    <row r="27" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>207</v>
       </c>
@@ -4823,7 +4827,7 @@
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" ht="72">
+    <row r="28" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>208</v>
       </c>
@@ -4831,17 +4835,17 @@
         <v>283</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="39">
+    <row r="29" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>407</v>
       </c>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="54">
+    <row r="30" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>8</v>
       </c>
@@ -4853,19 +4857,19 @@
       </c>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="54">
+    <row r="31" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="72">
+    <row r="32" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>10</v>
       </c>
@@ -4877,7 +4881,7 @@
       </c>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" ht="108">
+    <row r="33" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>11</v>
       </c>
@@ -4885,11 +4889,11 @@
         <v>555</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" ht="90">
+    <row r="34" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>12</v>
       </c>
@@ -4897,11 +4901,11 @@
         <v>288</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="72">
+    <row r="35" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>13</v>
       </c>
@@ -4913,19 +4917,19 @@
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" ht="36">
+    <row r="36" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" ht="54">
+    <row r="37" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>82</v>
       </c>
@@ -4933,11 +4937,11 @@
         <v>290</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" ht="90">
+    <row r="38" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>83</v>
       </c>
@@ -4949,7 +4953,7 @@
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" ht="54">
+    <row r="39" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>84</v>
       </c>
@@ -4961,7 +4965,7 @@
       </c>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" ht="72">
+    <row r="40" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>85</v>
       </c>
@@ -4969,11 +4973,11 @@
         <v>294</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4" ht="90">
+    <row r="41" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>86</v>
       </c>
@@ -4981,11 +4985,11 @@
         <v>295</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4" ht="90">
+    <row r="42" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>87</v>
       </c>
@@ -4993,11 +4997,11 @@
         <v>556</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="1:4" ht="90">
+    <row r="43" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>88</v>
       </c>
@@ -5009,7 +5013,7 @@
       </c>
       <c r="D43" s="5"/>
     </row>
-    <row r="44" spans="1:4" ht="108">
+    <row r="44" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>89</v>
       </c>
@@ -5017,11 +5021,11 @@
         <v>557</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" ht="108">
+    <row r="45" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>157</v>
       </c>
@@ -5033,14 +5037,14 @@
       </c>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" ht="39">
+    <row r="46" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
         <v>408</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" ht="90">
+    <row r="47" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>15</v>
       </c>
@@ -5052,7 +5056,7 @@
       </c>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:4" ht="90">
+    <row r="48" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>16</v>
       </c>
@@ -5064,7 +5068,7 @@
       </c>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:4" ht="108">
+    <row r="49" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>17</v>
       </c>
@@ -5076,7 +5080,7 @@
       </c>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:4" ht="90">
+    <row r="50" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>18</v>
       </c>
@@ -5088,7 +5092,7 @@
       </c>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="1:4" ht="90">
+    <row r="51" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>90</v>
       </c>
@@ -5100,7 +5104,7 @@
       </c>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="1:4" ht="54">
+    <row r="52" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>91</v>
       </c>
@@ -5112,7 +5116,7 @@
       </c>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="1:4" ht="72">
+    <row r="53" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>109</v>
       </c>
@@ -5124,26 +5128,26 @@
       </c>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:4" ht="19.5">
+    <row r="54" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" ht="126">
+    <row r="55" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>306</v>
       </c>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" ht="108">
+    <row r="56" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>20</v>
       </c>
@@ -5155,7 +5159,7 @@
       </c>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" ht="72">
+    <row r="57" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>21</v>
       </c>
@@ -5167,19 +5171,19 @@
       </c>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" ht="54">
+    <row r="58" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>381</v>
       </c>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" ht="72">
+    <row r="59" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>23</v>
       </c>
@@ -5191,31 +5195,31 @@
       </c>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:4" ht="90">
+    <row r="60" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>383</v>
       </c>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4" ht="72">
+    <row r="61" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>384</v>
       </c>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" ht="90">
+    <row r="62" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>26</v>
       </c>
@@ -5227,7 +5231,7 @@
       </c>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" ht="72">
+    <row r="63" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>27</v>
       </c>
@@ -5239,7 +5243,7 @@
       </c>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" ht="72">
+    <row r="64" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>151</v>
       </c>
@@ -5251,7 +5255,7 @@
       </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" ht="90">
+    <row r="65" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>152</v>
       </c>
@@ -5263,7 +5267,7 @@
       </c>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" ht="90">
+    <row r="66" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>209</v>
       </c>
@@ -5275,7 +5279,7 @@
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" ht="54">
+    <row r="67" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>210</v>
       </c>
@@ -5287,14 +5291,14 @@
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" ht="39">
+    <row r="68" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
         <v>559</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" ht="72">
+    <row r="69" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>92</v>
       </c>
@@ -5306,7 +5310,7 @@
       </c>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:4" ht="90">
+    <row r="70" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>93</v>
       </c>
@@ -5318,7 +5322,7 @@
       </c>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" ht="72">
+    <row r="71" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>94</v>
       </c>
@@ -5330,7 +5334,7 @@
       </c>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" ht="90">
+    <row r="72" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>95</v>
       </c>
@@ -5342,7 +5346,7 @@
       </c>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" ht="72">
+    <row r="73" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>96</v>
       </c>
@@ -5354,7 +5358,7 @@
       </c>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4" ht="90">
+    <row r="74" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>97</v>
       </c>
@@ -5366,7 +5370,7 @@
       </c>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" ht="72">
+    <row r="75" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>98</v>
       </c>
@@ -5378,7 +5382,7 @@
       </c>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" ht="90">
+    <row r="76" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>99</v>
       </c>
@@ -5390,14 +5394,14 @@
       </c>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" ht="58.5">
+    <row r="77" spans="1:4" ht="58.5" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="s">
         <v>409</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" ht="72">
+    <row r="78" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>113</v>
       </c>
@@ -5409,7 +5413,7 @@
       </c>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" ht="90">
+    <row r="79" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>114</v>
       </c>
@@ -5421,19 +5425,19 @@
       </c>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="1:4" ht="90">
+    <row r="80" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>115</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>334</v>
       </c>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:4" ht="72">
+    <row r="81" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>118</v>
       </c>
@@ -5445,7 +5449,7 @@
       </c>
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="1:4" ht="72">
+    <row r="82" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>119</v>
       </c>
@@ -5457,7 +5461,7 @@
       </c>
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="1:4" ht="72">
+    <row r="83" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>120</v>
       </c>
@@ -5469,43 +5473,43 @@
       </c>
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="1:4" ht="90">
+    <row r="84" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>389</v>
       </c>
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="1:4" ht="90">
+    <row r="85" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>122</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>344</v>
       </c>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:4" ht="90">
+    <row r="86" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>345</v>
       </c>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="1:4" ht="90">
+    <row r="87" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>28</v>
       </c>
@@ -5517,7 +5521,7 @@
       </c>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:4" ht="90">
+    <row r="88" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>29</v>
       </c>
@@ -5529,7 +5533,7 @@
       </c>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="1:4" ht="90">
+    <row r="89" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>154</v>
       </c>
@@ -5541,7 +5545,7 @@
       </c>
       <c r="D89" s="2"/>
     </row>
-    <row r="90" spans="1:4" ht="72">
+    <row r="90" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>160</v>
       </c>
@@ -5553,43 +5557,43 @@
       </c>
       <c r="D90" s="2"/>
     </row>
-    <row r="91" spans="1:4" ht="90">
+    <row r="91" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>176</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>350</v>
       </c>
       <c r="D91" s="2"/>
     </row>
-    <row r="92" spans="1:4" ht="72">
+    <row r="92" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>177</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>352</v>
       </c>
       <c r="D92" s="2"/>
     </row>
-    <row r="93" spans="1:4" ht="72">
+    <row r="93" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>178</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C93" s="12">
         <v>5.2990000000000004</v>
       </c>
       <c r="D93" s="2"/>
     </row>
-    <row r="94" spans="1:4" ht="90">
+    <row r="94" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>179</v>
       </c>
@@ -5597,11 +5601,11 @@
         <v>351</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:4" ht="90">
+    <row r="95" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>180</v>
       </c>
@@ -5609,23 +5613,23 @@
         <v>353</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:4" ht="108">
+    <row r="96" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>181</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:4" ht="108">
+    <row r="97" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>182</v>
       </c>
@@ -5633,11 +5637,11 @@
         <v>592</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:4" ht="108">
+    <row r="98" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>183</v>
       </c>
@@ -5645,30 +5649,30 @@
         <v>354</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:4" ht="39">
+    <row r="99" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="2"/>
     </row>
-    <row r="100" spans="1:4" ht="72">
+    <row r="100" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>355</v>
       </c>
       <c r="D100" s="2"/>
     </row>
-    <row r="101" spans="1:4" ht="90">
+    <row r="101" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>31</v>
       </c>
@@ -5680,7 +5684,7 @@
       </c>
       <c r="D101" s="2"/>
     </row>
-    <row r="102" spans="1:4" ht="90">
+    <row r="102" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>32</v>
       </c>
@@ -5692,7 +5696,7 @@
       </c>
       <c r="D102" s="2"/>
     </row>
-    <row r="103" spans="1:4" ht="90">
+    <row r="103" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>33</v>
       </c>
@@ -5704,7 +5708,7 @@
       </c>
       <c r="D103" s="2"/>
     </row>
-    <row r="104" spans="1:4" ht="90">
+    <row r="104" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>34</v>
       </c>
@@ -5716,43 +5720,43 @@
       </c>
       <c r="D104" s="2"/>
     </row>
-    <row r="105" spans="1:4" ht="90">
+    <row r="105" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>392</v>
       </c>
       <c r="D105" s="2"/>
     </row>
-    <row r="106" spans="1:4" ht="72">
+    <row r="106" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>364</v>
       </c>
       <c r="D106" s="2"/>
     </row>
-    <row r="107" spans="1:4" ht="108">
+    <row r="107" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>393</v>
       </c>
       <c r="D107" s="2"/>
     </row>
-    <row r="108" spans="1:4" ht="108">
+    <row r="108" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>38</v>
       </c>
@@ -5764,7 +5768,7 @@
       </c>
       <c r="D108" s="2"/>
     </row>
-    <row r="109" spans="1:4" ht="72">
+    <row r="109" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>39</v>
       </c>
@@ -5776,7 +5780,7 @@
       </c>
       <c r="D109" s="2"/>
     </row>
-    <row r="110" spans="1:4" ht="72">
+    <row r="110" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>40</v>
       </c>
@@ -5788,7 +5792,7 @@
       </c>
       <c r="D110" s="2"/>
     </row>
-    <row r="111" spans="1:4" ht="54">
+    <row r="111" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>41</v>
       </c>
@@ -5800,7 +5804,7 @@
       </c>
       <c r="D111" s="2"/>
     </row>
-    <row r="112" spans="1:4" ht="72">
+    <row r="112" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>42</v>
       </c>
@@ -5812,55 +5816,55 @@
       </c>
       <c r="D112" s="2"/>
     </row>
-    <row r="113" spans="1:4" ht="90">
+    <row r="113" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>397</v>
       </c>
       <c r="D113" s="2"/>
     </row>
-    <row r="114" spans="1:4" ht="90">
+    <row r="114" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>398</v>
       </c>
       <c r="D114" s="2"/>
     </row>
-    <row r="115" spans="1:4" ht="90">
+    <row r="115" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>399</v>
       </c>
       <c r="D115" s="2"/>
     </row>
-    <row r="116" spans="1:4" ht="90">
+    <row r="116" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>116</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>401</v>
       </c>
       <c r="D116" s="2"/>
     </row>
-    <row r="117" spans="1:4" ht="108">
+    <row r="117" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>117</v>
       </c>
@@ -5872,7 +5876,7 @@
       </c>
       <c r="D117" s="2"/>
     </row>
-    <row r="118" spans="1:4" ht="54">
+    <row r="118" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>137</v>
       </c>
@@ -5884,20 +5888,20 @@
       </c>
       <c r="D118" s="2"/>
     </row>
-    <row r="119" spans="1:4" ht="90">
+    <row r="119" spans="1:4" ht="102" x14ac:dyDescent="0.25">
       <c r="B119" s="4" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="2"/>
     </row>
-    <row r="120" spans="1:4" ht="58.5">
+    <row r="120" spans="1:4" ht="58.5" x14ac:dyDescent="0.25">
       <c r="B120" s="3" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D120" s="2"/>
     </row>
-    <row r="121" spans="1:4" ht="72">
+    <row r="121" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>0</v>
       </c>
@@ -5909,7 +5913,7 @@
       </c>
       <c r="D121" s="2"/>
     </row>
-    <row r="122" spans="1:4" ht="72">
+    <row r="122" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>1</v>
       </c>
@@ -5921,7 +5925,7 @@
       </c>
       <c r="D122" s="2"/>
     </row>
-    <row r="123" spans="1:4" ht="72">
+    <row r="123" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>2</v>
       </c>
@@ -5933,7 +5937,7 @@
       </c>
       <c r="D123" s="2"/>
     </row>
-    <row r="124" spans="1:4" ht="108">
+    <row r="124" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>3</v>
       </c>
@@ -5945,7 +5949,7 @@
       </c>
       <c r="D124" s="2"/>
     </row>
-    <row r="125" spans="1:4" ht="108">
+    <row r="125" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>4</v>
       </c>
@@ -5957,7 +5961,7 @@
       </c>
       <c r="D125" s="2"/>
     </row>
-    <row r="126" spans="1:4" ht="90">
+    <row r="126" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>5</v>
       </c>
@@ -5969,7 +5973,7 @@
       </c>
       <c r="D126" s="2"/>
     </row>
-    <row r="127" spans="1:4" ht="72">
+    <row r="127" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>6</v>
       </c>
@@ -5981,7 +5985,7 @@
       </c>
       <c r="D127" s="2"/>
     </row>
-    <row r="128" spans="1:4" ht="90">
+    <row r="128" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>7</v>
       </c>
@@ -5993,19 +5997,19 @@
       </c>
       <c r="D128" s="2"/>
     </row>
-    <row r="129" spans="1:4" ht="72">
+    <row r="129" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>138</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>425</v>
       </c>
       <c r="D129" s="2"/>
     </row>
-    <row r="130" spans="1:4" ht="90">
+    <row r="130" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>139</v>
       </c>
@@ -6017,19 +6021,19 @@
       </c>
       <c r="D130" s="2"/>
     </row>
-    <row r="131" spans="1:4" ht="108">
+    <row r="131" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>140</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>427</v>
       </c>
       <c r="D131" s="2"/>
     </row>
-    <row r="132" spans="1:4" ht="72">
+    <row r="132" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>141</v>
       </c>
@@ -6041,7 +6045,7 @@
       </c>
       <c r="D132" s="2"/>
     </row>
-    <row r="133" spans="1:4" ht="90">
+    <row r="133" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>142</v>
       </c>
@@ -6053,7 +6057,7 @@
       </c>
       <c r="D133" s="2"/>
     </row>
-    <row r="134" spans="1:4" ht="36">
+    <row r="134" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>143</v>
       </c>
@@ -6065,25 +6069,25 @@
       </c>
       <c r="D134" s="2"/>
     </row>
-    <row r="135" spans="1:4" ht="39">
+    <row r="135" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="B135" s="3" t="s">
         <v>454</v>
       </c>
       <c r="D135" s="2"/>
     </row>
-    <row r="136" spans="1:4" ht="72">
+    <row r="136" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>434</v>
       </c>
       <c r="D136" s="2"/>
     </row>
-    <row r="137" spans="1:4" ht="108">
+    <row r="137" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>9</v>
       </c>
@@ -6095,7 +6099,7 @@
       </c>
       <c r="D137" s="2"/>
     </row>
-    <row r="138" spans="1:4" ht="108">
+    <row r="138" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>10</v>
       </c>
@@ -6107,19 +6111,19 @@
       </c>
       <c r="D138" s="2"/>
     </row>
-    <row r="139" spans="1:4" ht="108">
+    <row r="139" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>439</v>
       </c>
       <c r="D139" s="2"/>
     </row>
-    <row r="140" spans="1:4" ht="72">
+    <row r="140" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>12</v>
       </c>
@@ -6131,7 +6135,7 @@
       </c>
       <c r="D140" s="2"/>
     </row>
-    <row r="141" spans="1:4" ht="90">
+    <row r="141" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>13</v>
       </c>
@@ -6143,7 +6147,7 @@
       </c>
       <c r="D141" s="2"/>
     </row>
-    <row r="142" spans="1:4" ht="90">
+    <row r="142" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>14</v>
       </c>
@@ -6155,7 +6159,7 @@
       </c>
       <c r="D142" s="2"/>
     </row>
-    <row r="143" spans="1:4" ht="90">
+    <row r="143" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>82</v>
       </c>
@@ -6167,43 +6171,43 @@
       </c>
       <c r="D143" s="2"/>
     </row>
-    <row r="144" spans="1:4" ht="54">
+    <row r="144" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>446</v>
       </c>
       <c r="D144" s="2"/>
     </row>
-    <row r="145" spans="1:4" ht="90">
+    <row r="145" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>447</v>
       </c>
       <c r="D145" s="2"/>
     </row>
-    <row r="146" spans="1:4" ht="90">
+    <row r="146" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>448</v>
       </c>
       <c r="D146" s="2"/>
     </row>
-    <row r="147" spans="1:4" ht="72">
+    <row r="147" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>86</v>
       </c>
@@ -6215,50 +6219,50 @@
       </c>
       <c r="D147" s="2"/>
     </row>
-    <row r="148" spans="1:4" ht="90">
+    <row r="148" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>451</v>
       </c>
       <c r="D148" s="2"/>
     </row>
-    <row r="149" spans="1:4" ht="90">
+    <row r="149" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>452</v>
       </c>
       <c r="D149" s="2"/>
     </row>
-    <row r="150" spans="1:4" ht="58.5">
+    <row r="150" spans="1:4" ht="58.5" x14ac:dyDescent="0.25">
       <c r="B150" s="3" t="s">
         <v>453</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="2"/>
     </row>
-    <row r="151" spans="1:4" ht="90">
+    <row r="151" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>456</v>
       </c>
       <c r="D151" s="2"/>
     </row>
-    <row r="152" spans="1:4" ht="72">
+    <row r="152" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>16</v>
       </c>
@@ -6270,19 +6274,19 @@
       </c>
       <c r="D152" s="2"/>
     </row>
-    <row r="153" spans="1:4" ht="90">
+    <row r="153" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>458</v>
       </c>
       <c r="D153" s="2"/>
     </row>
-    <row r="154" spans="1:4" ht="108">
+    <row r="154" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>18</v>
       </c>
@@ -6294,7 +6298,7 @@
       </c>
       <c r="D154" s="2"/>
     </row>
-    <row r="155" spans="1:4" ht="72">
+    <row r="155" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>90</v>
       </c>
@@ -6306,7 +6310,7 @@
       </c>
       <c r="D155" s="2"/>
     </row>
-    <row r="156" spans="1:4" ht="108">
+    <row r="156" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>91</v>
       </c>
@@ -6318,7 +6322,7 @@
       </c>
       <c r="D156" s="2"/>
     </row>
-    <row r="157" spans="1:4" ht="90">
+    <row r="157" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>109</v>
       </c>
@@ -6330,19 +6334,19 @@
       </c>
       <c r="D157" s="2"/>
     </row>
-    <row r="158" spans="1:4" ht="108">
+    <row r="158" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>110</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>466</v>
       </c>
       <c r="D158" s="2"/>
     </row>
-    <row r="159" spans="1:4" ht="90">
+    <row r="159" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>111</v>
       </c>
@@ -6354,7 +6358,7 @@
       </c>
       <c r="D159" s="2"/>
     </row>
-    <row r="160" spans="1:4" ht="90">
+    <row r="160" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>112</v>
       </c>
@@ -6366,31 +6370,31 @@
       </c>
       <c r="D160" s="2"/>
     </row>
-    <row r="161" spans="1:16383" ht="72">
+    <row r="161" spans="1:16383" ht="72" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>123</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C161" s="5" t="s">
         <v>469</v>
       </c>
       <c r="D161" s="2"/>
     </row>
-    <row r="162" spans="1:16383" ht="90">
+    <row r="162" spans="1:16383" ht="90" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>470</v>
       </c>
       <c r="D162" s="2"/>
     </row>
-    <row r="163" spans="1:16383" ht="72">
+    <row r="163" spans="1:16383" ht="72" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>125</v>
       </c>
@@ -6402,7 +6406,7 @@
       </c>
       <c r="D163" s="2"/>
     </row>
-    <row r="164" spans="1:16383" ht="54">
+    <row r="164" spans="1:16383" ht="72" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>126</v>
       </c>
@@ -6414,7 +6418,7 @@
       </c>
       <c r="D164" s="2"/>
     </row>
-    <row r="165" spans="1:16383" ht="90">
+    <row r="165" spans="1:16383" ht="108" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>127</v>
       </c>
@@ -6426,7 +6430,7 @@
       </c>
       <c r="D165" s="2"/>
     </row>
-    <row r="166" spans="1:16383" ht="72">
+    <row r="166" spans="1:16383" ht="72" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>128</v>
       </c>
@@ -6438,7 +6442,7 @@
       </c>
       <c r="D166" s="2"/>
     </row>
-    <row r="167" spans="1:16383" ht="108">
+    <row r="167" spans="1:16383" ht="108" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>129</v>
       </c>
@@ -6450,7 +6454,7 @@
       </c>
       <c r="D167" s="2"/>
     </row>
-    <row r="168" spans="1:16383" ht="90">
+    <row r="168" spans="1:16383" ht="90" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>130</v>
       </c>
@@ -6462,7 +6466,7 @@
       </c>
       <c r="D168" s="2"/>
     </row>
-    <row r="169" spans="1:16383" ht="90">
+    <row r="169" spans="1:16383" ht="108" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>131</v>
       </c>
@@ -6474,19 +6478,19 @@
       </c>
       <c r="D169" s="2"/>
     </row>
-    <row r="170" spans="1:16383" ht="108">
+    <row r="170" spans="1:16383" ht="126" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>132</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C170" s="5" t="s">
         <v>483</v>
       </c>
       <c r="D170" s="2"/>
     </row>
-    <row r="171" spans="1:16383" ht="39">
+    <row r="171" spans="1:16383" ht="39" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="3" t="s">
         <v>527</v>
@@ -22873,7 +22877,7 @@
       <c r="XFB171" s="2"/>
       <c r="XFC171" s="2"/>
     </row>
-    <row r="172" spans="1:16383" ht="54">
+    <row r="172" spans="1:16383" ht="72" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
         <v>4.0999999999999996</v>
       </c>
@@ -22885,7 +22889,7 @@
       </c>
       <c r="D172" s="2"/>
     </row>
-    <row r="173" spans="1:16383" ht="108">
+    <row r="173" spans="1:16383" ht="108" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>20</v>
       </c>
@@ -22897,7 +22901,7 @@
       </c>
       <c r="D173" s="2"/>
     </row>
-    <row r="174" spans="1:16383" ht="90">
+    <row r="174" spans="1:16383" ht="90" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>21</v>
       </c>
@@ -22909,7 +22913,7 @@
       </c>
       <c r="D174" s="2"/>
     </row>
-    <row r="175" spans="1:16383" ht="108">
+    <row r="175" spans="1:16383" ht="126" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>22</v>
       </c>
@@ -22921,7 +22925,7 @@
       </c>
       <c r="D175" s="2"/>
     </row>
-    <row r="176" spans="1:16383" ht="72">
+    <row r="176" spans="1:16383" ht="72" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>23</v>
       </c>
@@ -22933,7 +22937,7 @@
       </c>
       <c r="D176" s="2"/>
     </row>
-    <row r="177" spans="1:4" ht="90">
+    <row r="177" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>24</v>
       </c>
@@ -22945,19 +22949,19 @@
       </c>
       <c r="D177" s="2"/>
     </row>
-    <row r="178" spans="1:4" ht="54">
+    <row r="178" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>494</v>
       </c>
       <c r="D178" s="2"/>
     </row>
-    <row r="179" spans="1:4" ht="108">
+    <row r="179" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>26</v>
       </c>
@@ -22969,19 +22973,19 @@
       </c>
       <c r="D179" s="2"/>
     </row>
-    <row r="180" spans="1:4" ht="90">
+    <row r="180" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>496</v>
       </c>
       <c r="D180" s="2"/>
     </row>
-    <row r="181" spans="1:4" ht="108">
+    <row r="181" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>151</v>
       </c>
@@ -22993,14 +22997,14 @@
       </c>
       <c r="D181" s="2"/>
     </row>
-    <row r="182" spans="1:4" ht="39">
+    <row r="182" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="B182" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="C182" s="5"/>
       <c r="D182" s="2"/>
     </row>
-    <row r="183" spans="1:4" ht="72">
+    <row r="183" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>92</v>
       </c>
@@ -23012,19 +23016,19 @@
       </c>
       <c r="D183" s="2"/>
     </row>
-    <row r="184" spans="1:4" ht="108">
+    <row r="184" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>499</v>
       </c>
       <c r="D184" s="2"/>
     </row>
-    <row r="185" spans="1:4" ht="90">
+    <row r="185" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>94</v>
       </c>
@@ -23036,7 +23040,7 @@
       </c>
       <c r="D185" s="2"/>
     </row>
-    <row r="186" spans="1:4" ht="72">
+    <row r="186" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>95</v>
       </c>
@@ -23048,31 +23052,31 @@
       </c>
       <c r="D186" s="2"/>
     </row>
-    <row r="187" spans="1:4" ht="90">
+    <row r="187" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>506</v>
       </c>
       <c r="D187" s="2"/>
     </row>
-    <row r="188" spans="1:4" ht="90">
+    <row r="188" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>507</v>
       </c>
       <c r="D188" s="2"/>
     </row>
-    <row r="189" spans="1:4" ht="90">
+    <row r="189" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>98</v>
       </c>
@@ -23084,19 +23088,19 @@
       </c>
       <c r="D189" s="2"/>
     </row>
-    <row r="190" spans="1:4" ht="90">
+    <row r="190" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>510</v>
       </c>
       <c r="D190" s="2"/>
     </row>
-    <row r="191" spans="1:4" ht="90">
+    <row r="191" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>100</v>
       </c>
@@ -23108,31 +23112,31 @@
       </c>
       <c r="D191" s="2"/>
     </row>
-    <row r="192" spans="1:4" ht="72">
+    <row r="192" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>512</v>
       </c>
       <c r="D192" s="2"/>
     </row>
-    <row r="193" spans="1:4" ht="72">
+    <row r="193" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>513</v>
       </c>
       <c r="D193" s="2"/>
     </row>
-    <row r="194" spans="1:4" ht="72">
+    <row r="194" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>103</v>
       </c>
@@ -23144,7 +23148,7 @@
       </c>
       <c r="D194" s="2"/>
     </row>
-    <row r="195" spans="1:4" ht="72">
+    <row r="195" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>104</v>
       </c>
@@ -23156,43 +23160,43 @@
       </c>
       <c r="D195" s="2"/>
     </row>
-    <row r="196" spans="1:4" ht="90">
+    <row r="196" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>105</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C196" s="5" t="s">
         <v>516</v>
       </c>
       <c r="D196" s="2"/>
     </row>
-    <row r="197" spans="1:4" ht="90">
+    <row r="197" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C197" s="5" t="s">
         <v>518</v>
       </c>
       <c r="D197" s="2"/>
     </row>
-    <row r="198" spans="1:4" ht="90">
+    <row r="198" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>107</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>519</v>
       </c>
       <c r="D198" s="2"/>
     </row>
-    <row r="199" spans="1:4" ht="90">
+    <row r="199" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>108</v>
       </c>
@@ -23204,26 +23208,26 @@
       </c>
       <c r="D199" s="2"/>
     </row>
-    <row r="200" spans="1:4" ht="39">
+    <row r="200" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="B200" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C200" s="5"/>
       <c r="D200" s="2"/>
     </row>
-    <row r="201" spans="1:4" ht="90">
+    <row r="201" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>113</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>521</v>
       </c>
       <c r="D201" s="2"/>
     </row>
-    <row r="202" spans="1:4" ht="90">
+    <row r="202" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>114</v>
       </c>
@@ -23235,43 +23239,43 @@
       </c>
       <c r="D202" s="2"/>
     </row>
-    <row r="203" spans="1:4" ht="90">
+    <row r="203" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>115</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>523</v>
       </c>
       <c r="D203" s="2"/>
     </row>
-    <row r="204" spans="1:4" ht="72">
+    <row r="204" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>118</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>524</v>
       </c>
       <c r="D204" s="2"/>
     </row>
-    <row r="205" spans="1:4" ht="126">
+    <row r="205" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>119</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>525</v>
       </c>
       <c r="D205" s="2"/>
     </row>
-    <row r="206" spans="1:4" ht="108">
+    <row r="206" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>120</v>
       </c>
@@ -23283,19 +23287,19 @@
       </c>
       <c r="D206" s="2"/>
     </row>
-    <row r="207" spans="1:4" ht="108">
+    <row r="207" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C207" s="5" t="s">
         <v>530</v>
       </c>
       <c r="D207" s="2"/>
     </row>
-    <row r="208" spans="1:4" ht="90">
+    <row r="208" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>122</v>
       </c>
@@ -23307,7 +23311,7 @@
       </c>
       <c r="D208" s="2"/>
     </row>
-    <row r="209" spans="1:4" ht="126">
+    <row r="209" spans="1:4" ht="144" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
         <v>153</v>
       </c>
@@ -23319,19 +23323,19 @@
       </c>
       <c r="D209" s="2"/>
     </row>
-    <row r="210" spans="1:4" ht="90">
+    <row r="210" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>534</v>
       </c>
       <c r="D210" s="2"/>
     </row>
-    <row r="211" spans="1:4" ht="90">
+    <row r="211" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>29</v>
       </c>
@@ -23343,7 +23347,7 @@
       </c>
       <c r="D211" s="2"/>
     </row>
-    <row r="212" spans="1:4" ht="72">
+    <row r="212" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
         <v>154</v>
       </c>
@@ -23355,19 +23359,19 @@
       </c>
       <c r="D212" s="2"/>
     </row>
-    <row r="213" spans="1:4" ht="90">
+    <row r="213" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
         <v>160</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>539</v>
       </c>
       <c r="D213" s="2"/>
     </row>
-    <row r="214" spans="1:4" ht="108">
+    <row r="214" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>176</v>
       </c>
@@ -23379,7 +23383,7 @@
       </c>
       <c r="D214" s="2"/>
     </row>
-    <row r="215" spans="1:4" ht="72">
+    <row r="215" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>177</v>
       </c>
@@ -23391,7 +23395,7 @@
       </c>
       <c r="D215" s="2"/>
     </row>
-    <row r="216" spans="1:4" ht="90">
+    <row r="216" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>178</v>
       </c>
@@ -23403,7 +23407,7 @@
       </c>
       <c r="D216" s="2"/>
     </row>
-    <row r="217" spans="1:4" ht="108">
+    <row r="217" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>179</v>
       </c>
@@ -23415,32 +23419,32 @@
       </c>
       <c r="D217" s="2"/>
     </row>
-    <row r="218" spans="1:4" ht="90">
+    <row r="218" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>180</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>544</v>
       </c>
       <c r="D218" s="2"/>
     </row>
-    <row r="219" spans="1:4" ht="90">
+    <row r="219" spans="1:4" ht="102" x14ac:dyDescent="0.25">
       <c r="B219" s="4" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C219" s="5"/>
       <c r="D219" s="2"/>
     </row>
-    <row r="220" spans="1:4" ht="58.5">
+    <row r="220" spans="1:4" ht="58.5" x14ac:dyDescent="0.25">
       <c r="B220" s="3" t="s">
         <v>682</v>
       </c>
       <c r="D220" s="2"/>
     </row>
-    <row r="221" spans="1:4" ht="72">
+    <row r="221" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>0</v>
       </c>
@@ -23452,7 +23456,7 @@
       </c>
       <c r="D221" s="2"/>
     </row>
-    <row r="222" spans="1:4" ht="90">
+    <row r="222" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
         <v>1</v>
       </c>
@@ -23464,43 +23468,43 @@
       </c>
       <c r="D222" s="2"/>
     </row>
-    <row r="223" spans="1:4" ht="90">
+    <row r="223" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>549</v>
       </c>
       <c r="D223" s="2"/>
     </row>
-    <row r="224" spans="1:4" ht="90">
+    <row r="224" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C224" s="5" t="s">
         <v>550</v>
       </c>
       <c r="D224" s="2"/>
     </row>
-    <row r="225" spans="1:4" ht="90">
+    <row r="225" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C225" s="5" t="s">
         <v>573</v>
       </c>
       <c r="D225" s="2"/>
     </row>
-    <row r="226" spans="1:4" ht="90">
+    <row r="226" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
         <v>5</v>
       </c>
@@ -23512,19 +23516,19 @@
       </c>
       <c r="D226" s="2"/>
     </row>
-    <row r="227" spans="1:4" ht="72">
+    <row r="227" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C227" s="5" t="s">
         <v>576</v>
       </c>
       <c r="D227" s="2"/>
     </row>
-    <row r="228" spans="1:4" ht="72">
+    <row r="228" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
         <v>7</v>
       </c>
@@ -23536,7 +23540,7 @@
       </c>
       <c r="D228" s="2"/>
     </row>
-    <row r="229" spans="1:4" ht="54">
+    <row r="229" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
         <v>138</v>
       </c>
@@ -23548,31 +23552,31 @@
       </c>
       <c r="D229" s="2"/>
     </row>
-    <row r="230" spans="1:4" ht="108">
+    <row r="230" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
         <v>139</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C230" s="5" t="s">
         <v>581</v>
       </c>
       <c r="D230" s="2"/>
     </row>
-    <row r="231" spans="1:4" ht="90">
+    <row r="231" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
         <v>140</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>582</v>
       </c>
       <c r="D231" s="2"/>
     </row>
-    <row r="232" spans="1:4" ht="108">
+    <row r="232" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
         <v>141</v>
       </c>
@@ -23584,7 +23588,7 @@
       </c>
       <c r="D232" s="2"/>
     </row>
-    <row r="233" spans="1:4" ht="90">
+    <row r="233" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
         <v>142</v>
       </c>
@@ -23596,7 +23600,7 @@
       </c>
       <c r="D233" s="2"/>
     </row>
-    <row r="234" spans="1:4" ht="108">
+    <row r="234" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
         <v>143</v>
       </c>
@@ -23608,19 +23612,19 @@
       </c>
       <c r="D234" s="2"/>
     </row>
-    <row r="235" spans="1:4" ht="72">
+    <row r="235" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
         <v>144</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C235" s="5" t="s">
         <v>606</v>
       </c>
       <c r="D235" s="2"/>
     </row>
-    <row r="236" spans="1:4" ht="72">
+    <row r="236" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
         <v>145</v>
       </c>
@@ -23632,38 +23636,38 @@
       </c>
       <c r="D236" s="2"/>
     </row>
-    <row r="237" spans="1:4" ht="39">
+    <row r="237" spans="1:4" ht="58.5" x14ac:dyDescent="0.25">
       <c r="B237" s="3" t="s">
         <v>683</v>
       </c>
       <c r="C237" s="5"/>
       <c r="D237" s="2"/>
     </row>
-    <row r="238" spans="1:4" ht="108">
+    <row r="238" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A238" s="5">
         <v>2.1</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C238" s="5" t="s">
         <v>609</v>
       </c>
       <c r="D238" s="2"/>
     </row>
-    <row r="239" spans="1:4" ht="90">
+    <row r="239" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C239" s="5" t="s">
         <v>610</v>
       </c>
       <c r="D239" s="2"/>
     </row>
-    <row r="240" spans="1:4" ht="108">
+    <row r="240" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
         <v>10</v>
       </c>
@@ -23675,55 +23679,55 @@
       </c>
       <c r="D240" s="2"/>
     </row>
-    <row r="241" spans="1:4" ht="72">
+    <row r="241" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C241" s="5" t="s">
         <v>612</v>
       </c>
       <c r="D241" s="2"/>
     </row>
-    <row r="242" spans="1:4" ht="90">
+    <row r="242" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>615</v>
       </c>
       <c r="D242" s="2"/>
     </row>
-    <row r="243" spans="1:4" ht="108">
+    <row r="243" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>616</v>
       </c>
       <c r="D243" s="2"/>
     </row>
-    <row r="244" spans="1:4" ht="108">
+    <row r="244" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>617</v>
       </c>
       <c r="D244" s="2"/>
     </row>
-    <row r="245" spans="1:4" ht="72">
+    <row r="245" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
         <v>82</v>
       </c>
@@ -23735,55 +23739,55 @@
       </c>
       <c r="D245" s="2"/>
     </row>
-    <row r="246" spans="1:4" ht="90">
+    <row r="246" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C246" s="5" t="s">
         <v>614</v>
       </c>
       <c r="D246" s="2"/>
     </row>
-    <row r="247" spans="1:4" ht="90">
+    <row r="247" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C247" s="5" t="s">
         <v>620</v>
       </c>
       <c r="D247" s="2"/>
     </row>
-    <row r="248" spans="1:4" ht="90">
+    <row r="248" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C248" s="5" t="s">
         <v>621</v>
       </c>
       <c r="D248" s="2"/>
     </row>
-    <row r="249" spans="1:4" ht="90">
+    <row r="249" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="C249" s="5" t="s">
         <v>622</v>
       </c>
       <c r="D249" s="2"/>
     </row>
-    <row r="250" spans="1:4" ht="108">
+    <row r="250" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
         <v>87</v>
       </c>
@@ -23795,19 +23799,19 @@
       </c>
       <c r="D250" s="2"/>
     </row>
-    <row r="251" spans="1:4" ht="72">
+    <row r="251" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
         <v>88</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C251" s="5" t="s">
         <v>624</v>
       </c>
       <c r="D251" s="2"/>
     </row>
-    <row r="252" spans="1:4" ht="108">
+    <row r="252" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
         <v>89</v>
       </c>
@@ -23819,7 +23823,7 @@
       </c>
       <c r="D252" s="2"/>
     </row>
-    <row r="253" spans="1:4" ht="72">
+    <row r="253" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
         <v>157</v>
       </c>
@@ -23831,7 +23835,7 @@
       </c>
       <c r="D253" s="2"/>
     </row>
-    <row r="254" spans="1:4" ht="54">
+    <row r="254" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
         <v>158</v>
       </c>
@@ -23843,7 +23847,7 @@
       </c>
       <c r="D254" s="2"/>
     </row>
-    <row r="255" spans="1:4" ht="108">
+    <row r="255" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
         <v>193</v>
       </c>
@@ -23855,7 +23859,7 @@
       </c>
       <c r="D255" s="2"/>
     </row>
-    <row r="256" spans="1:4" ht="72">
+    <row r="256" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
         <v>159</v>
       </c>
@@ -23867,110 +23871,110 @@
       </c>
       <c r="D256" s="2"/>
     </row>
-    <row r="257" spans="1:4" ht="39">
+    <row r="257" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="B257" s="3" t="s">
         <v>684</v>
       </c>
       <c r="C257" s="5"/>
       <c r="D257" s="2"/>
     </row>
-    <row r="258" spans="1:4" ht="108">
+    <row r="258" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C258" s="5" t="s">
         <v>636</v>
       </c>
       <c r="D258" s="2"/>
     </row>
-    <row r="259" spans="1:4" ht="90">
+    <row r="259" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C259" s="5" t="s">
         <v>637</v>
       </c>
       <c r="D259" s="2"/>
     </row>
-    <row r="260" spans="1:4" ht="90">
+    <row r="260" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>638</v>
       </c>
       <c r="D260" s="2"/>
     </row>
-    <row r="261" spans="1:4" ht="90">
+    <row r="261" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>639</v>
       </c>
       <c r="D261" s="2"/>
     </row>
-    <row r="262" spans="1:4" ht="72">
+    <row r="262" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>640</v>
       </c>
       <c r="D262" s="2"/>
     </row>
-    <row r="263" spans="1:4" ht="90">
+    <row r="263" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>641</v>
       </c>
       <c r="D263" s="2"/>
     </row>
-    <row r="264" spans="1:4" ht="72">
+    <row r="264" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
         <v>109</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>642</v>
       </c>
       <c r="D264" s="2"/>
     </row>
-    <row r="265" spans="1:4" ht="126">
+    <row r="265" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
         <v>110</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>643</v>
       </c>
       <c r="D265" s="2"/>
     </row>
-    <row r="266" spans="1:4" ht="108">
+    <row r="266" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
         <v>111</v>
       </c>
@@ -23982,19 +23986,19 @@
       </c>
       <c r="D266" s="2"/>
     </row>
-    <row r="267" spans="1:4" ht="126">
+    <row r="267" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
         <v>112</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>645</v>
       </c>
       <c r="D267" s="2"/>
     </row>
-    <row r="268" spans="1:4" ht="72">
+    <row r="268" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
         <v>123</v>
       </c>
@@ -24006,19 +24010,19 @@
       </c>
       <c r="D268" s="2"/>
     </row>
-    <row r="269" spans="1:4" ht="90">
+    <row r="269" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>649</v>
       </c>
       <c r="D269" s="2"/>
     </row>
-    <row r="270" spans="1:4" ht="108">
+    <row r="270" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
         <v>125</v>
       </c>
@@ -24030,7 +24034,7 @@
       </c>
       <c r="D270" s="2"/>
     </row>
-    <row r="271" spans="1:4" ht="90">
+    <row r="271" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
         <v>126</v>
       </c>
@@ -24042,7 +24046,7 @@
       </c>
       <c r="D271" s="2"/>
     </row>
-    <row r="272" spans="1:4" ht="90">
+    <row r="272" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
         <v>127</v>
       </c>
@@ -24054,7 +24058,7 @@
       </c>
       <c r="D272" s="2"/>
     </row>
-    <row r="273" spans="1:4" ht="90">
+    <row r="273" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
         <v>128</v>
       </c>
@@ -24066,31 +24070,31 @@
       </c>
       <c r="D273" s="2"/>
     </row>
-    <row r="274" spans="1:4" ht="108">
+    <row r="274" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="C274" s="5" t="s">
         <v>656</v>
       </c>
       <c r="D274" s="2"/>
     </row>
-    <row r="275" spans="1:4" ht="90">
+    <row r="275" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
         <v>130</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>657</v>
       </c>
       <c r="D275" s="2"/>
     </row>
-    <row r="276" spans="1:4" ht="90">
+    <row r="276" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
         <v>131</v>
       </c>
@@ -24102,19 +24106,19 @@
       </c>
       <c r="D276" s="2"/>
     </row>
-    <row r="277" spans="1:4" ht="90">
+    <row r="277" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A277" s="5" t="s">
         <v>132</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>662</v>
       </c>
       <c r="D277" s="2"/>
     </row>
-    <row r="278" spans="1:4" ht="90">
+    <row r="278" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A278" s="5" t="s">
         <v>133</v>
       </c>
@@ -24126,86 +24130,86 @@
       </c>
       <c r="D278" s="2"/>
     </row>
-    <row r="279" spans="1:4" ht="90">
+    <row r="279" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A279" s="5" t="s">
         <v>134</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C279" s="5" t="s">
         <v>665</v>
       </c>
       <c r="D279" s="2"/>
     </row>
-    <row r="280" spans="1:4" ht="108">
+    <row r="280" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A280" s="5" t="s">
         <v>135</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C280" s="5" t="s">
         <v>666</v>
       </c>
       <c r="D280" s="2"/>
     </row>
-    <row r="281" spans="1:4" ht="108">
+    <row r="281" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
         <v>136</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C281" s="5" t="s">
         <v>667</v>
       </c>
       <c r="D281" s="2"/>
     </row>
-    <row r="282" spans="1:4" ht="39">
+    <row r="282" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="B282" s="3" t="s">
         <v>685</v>
       </c>
       <c r="C282" s="5"/>
       <c r="D282" s="2"/>
     </row>
-    <row r="283" spans="1:4" ht="72">
+    <row r="283" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>668</v>
       </c>
       <c r="D283" s="2"/>
     </row>
-    <row r="284" spans="1:4" ht="90">
+    <row r="284" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>669</v>
       </c>
       <c r="D284" s="2"/>
     </row>
-    <row r="285" spans="1:4" ht="90">
+    <row r="285" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>670</v>
       </c>
       <c r="D285" s="2"/>
     </row>
-    <row r="286" spans="1:4" ht="54">
+    <row r="286" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
         <v>22</v>
       </c>
@@ -24217,43 +24221,43 @@
       </c>
       <c r="D286" s="2"/>
     </row>
-    <row r="287" spans="1:4" ht="90">
+    <row r="287" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A287" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C287" s="5" t="s">
         <v>672</v>
       </c>
       <c r="D287" s="2"/>
     </row>
-    <row r="288" spans="1:4" ht="90">
+    <row r="288" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A288" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>674</v>
       </c>
       <c r="D288" s="2"/>
     </row>
-    <row r="289" spans="1:4" ht="108">
+    <row r="289" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A289" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>675</v>
       </c>
       <c r="D289" s="2"/>
     </row>
-    <row r="290" spans="1:4" ht="108">
+    <row r="290" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A290" s="5" t="s">
         <v>26</v>
       </c>
@@ -24265,38 +24269,38 @@
       </c>
       <c r="D290" s="2"/>
     </row>
-    <row r="291" spans="1:4" ht="39">
+    <row r="291" spans="1:4" ht="58.5" x14ac:dyDescent="0.25">
       <c r="B291" s="3" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C291" s="5"/>
       <c r="D291" s="2"/>
     </row>
-    <row r="292" spans="1:4" ht="90">
+    <row r="292" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A292" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>678</v>
       </c>
       <c r="D292" s="2"/>
     </row>
-    <row r="293" spans="1:4" ht="90">
+    <row r="293" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A293" s="5" t="s">
         <v>93</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C293" s="5" t="s">
         <v>679</v>
       </c>
       <c r="D293" s="2"/>
     </row>
-    <row r="294" spans="1:4" ht="108">
+    <row r="294" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A294" s="5" t="s">
         <v>94</v>
       </c>
@@ -24308,127 +24312,127 @@
       </c>
       <c r="D294" s="2"/>
     </row>
-    <row r="295" spans="1:4" ht="108">
+    <row r="295" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A295" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C295" s="5" t="s">
         <v>681</v>
       </c>
       <c r="D295" s="2"/>
     </row>
-    <row r="296" spans="1:4" ht="90">
+    <row r="296" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
         <v>96</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="C296" s="5" t="s">
         <v>687</v>
       </c>
       <c r="D296" s="2"/>
     </row>
-    <row r="297" spans="1:4" ht="72">
+    <row r="297" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
         <v>97</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>688</v>
       </c>
       <c r="D297" s="2"/>
     </row>
-    <row r="298" spans="1:4" ht="72">
+    <row r="298" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
         <v>98</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>689</v>
       </c>
       <c r="D298" s="2"/>
     </row>
-    <row r="299" spans="1:4" ht="90">
+    <row r="299" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A299" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C299" s="5" t="s">
         <v>690</v>
       </c>
       <c r="D299" s="2"/>
     </row>
-    <row r="300" spans="1:4" ht="72">
+    <row r="300" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A300" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C300" s="5" t="s">
         <v>691</v>
       </c>
       <c r="D300" s="2"/>
     </row>
-    <row r="301" spans="1:4" ht="90">
+    <row r="301" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A301" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="C301" s="5" t="s">
         <v>692</v>
       </c>
       <c r="D301" s="2"/>
     </row>
-    <row r="302" spans="1:4" ht="108">
+    <row r="302" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A302" s="5" t="s">
         <v>102</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C302" s="5" t="s">
         <v>693</v>
       </c>
       <c r="D302" s="2"/>
     </row>
-    <row r="303" spans="1:4" ht="126">
+    <row r="303" spans="1:4" ht="144" x14ac:dyDescent="0.25">
       <c r="A303" s="5" t="s">
         <v>103</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>694</v>
       </c>
       <c r="D303" s="2"/>
     </row>
-    <row r="304" spans="1:4" ht="72">
+    <row r="304" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A304" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>695</v>
       </c>
       <c r="D304" s="2"/>
     </row>
-    <row r="305" spans="1:4" ht="108">
+    <row r="305" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A305" s="5" t="s">
         <v>105</v>
       </c>
@@ -24440,26 +24444,26 @@
       </c>
       <c r="D305" s="2"/>
     </row>
-    <row r="306" spans="1:4" ht="108">
+    <row r="306" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A306" s="5" t="s">
         <v>106</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C306" s="5" t="s">
         <v>697</v>
       </c>
       <c r="D306" s="2"/>
     </row>
-    <row r="307" spans="1:4" ht="19.5">
+    <row r="307" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="B307" s="3" t="s">
         <v>833</v>
       </c>
       <c r="C307" s="5"/>
       <c r="D307" s="2"/>
     </row>
-    <row r="308" spans="1:4" ht="108">
+    <row r="308" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A308" s="5">
         <v>6.1</v>
       </c>
@@ -24471,7 +24475,7 @@
       </c>
       <c r="D308" s="2"/>
     </row>
-    <row r="309" spans="1:4" ht="108">
+    <row r="309" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A309" s="5">
         <v>6.2</v>
       </c>
@@ -24483,7 +24487,7 @@
       </c>
       <c r="D309" s="2"/>
     </row>
-    <row r="310" spans="1:4" ht="90">
+    <row r="310" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A310" s="5">
         <v>6.3</v>
       </c>
@@ -24495,31 +24499,31 @@
       </c>
       <c r="D310" s="2"/>
     </row>
-    <row r="311" spans="1:4" ht="108">
+    <row r="311" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A311" s="5">
         <v>6.4</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>703</v>
       </c>
       <c r="D311" s="2"/>
     </row>
-    <row r="312" spans="1:4" ht="72">
+    <row r="312" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A312" s="5">
         <v>6.5</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>704</v>
       </c>
       <c r="D312" s="2"/>
     </row>
-    <row r="313" spans="1:4" ht="72">
+    <row r="313" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A313" s="5">
         <v>6.6</v>
       </c>
@@ -24531,7 +24535,7 @@
       </c>
       <c r="D313" s="2"/>
     </row>
-    <row r="314" spans="1:4" ht="90">
+    <row r="314" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A314" s="5">
         <v>6.7</v>
       </c>
@@ -24543,7 +24547,7 @@
       </c>
       <c r="D314" s="2"/>
     </row>
-    <row r="315" spans="1:4" ht="72">
+    <row r="315" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A315" s="5">
         <v>6.8</v>
       </c>
@@ -24555,7 +24559,7 @@
       </c>
       <c r="D315" s="2"/>
     </row>
-    <row r="316" spans="1:4" ht="54">
+    <row r="316" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A316" s="5">
         <v>6.9</v>
       </c>
@@ -24567,7 +24571,7 @@
       </c>
       <c r="D316" s="2"/>
     </row>
-    <row r="317" spans="1:4" ht="72">
+    <row r="317" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
         <v>28</v>
       </c>
@@ -24579,7 +24583,7 @@
       </c>
       <c r="D317" s="2"/>
     </row>
-    <row r="318" spans="1:4" ht="90">
+    <row r="318" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A318" s="5" t="s">
         <v>29</v>
       </c>
@@ -24591,7 +24595,7 @@
       </c>
       <c r="D318" s="2"/>
     </row>
-    <row r="319" spans="1:4" ht="90">
+    <row r="319" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A319" s="5" t="s">
         <v>154</v>
       </c>
@@ -24603,7 +24607,7 @@
       </c>
       <c r="D319" s="2"/>
     </row>
-    <row r="320" spans="1:4" ht="54">
+    <row r="320" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A320" s="5" t="s">
         <v>160</v>
       </c>
@@ -24615,7 +24619,7 @@
       </c>
       <c r="D320" s="2"/>
     </row>
-    <row r="321" spans="1:4" ht="90">
+    <row r="321" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A321" s="5" t="s">
         <v>176</v>
       </c>
@@ -24627,55 +24631,55 @@
       </c>
       <c r="D321" s="2"/>
     </row>
-    <row r="322" spans="1:4" ht="72">
+    <row r="322" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A322" s="5" t="s">
         <v>177</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>722</v>
       </c>
       <c r="D322" s="2"/>
     </row>
-    <row r="323" spans="1:4" ht="90">
+    <row r="323" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A323" s="5" t="s">
         <v>178</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>723</v>
       </c>
       <c r="D323" s="2"/>
     </row>
-    <row r="324" spans="1:4" ht="90">
+    <row r="324" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A324" s="5" t="s">
         <v>179</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>724</v>
       </c>
       <c r="D324" s="2"/>
     </row>
-    <row r="325" spans="1:4" ht="72">
+    <row r="325" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A325" s="5" t="s">
         <v>180</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>726</v>
       </c>
       <c r="D325" s="2"/>
     </row>
-    <row r="326" spans="1:4" ht="72">
+    <row r="326" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
         <v>181</v>
       </c>
@@ -24687,7 +24691,7 @@
       </c>
       <c r="D326" s="2"/>
     </row>
-    <row r="327" spans="1:4" ht="54">
+    <row r="327" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A327" s="5" t="s">
         <v>182</v>
       </c>
@@ -24699,7 +24703,7 @@
       </c>
       <c r="D327" s="2"/>
     </row>
-    <row r="328" spans="1:4" ht="72">
+    <row r="328" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A328" s="5" t="s">
         <v>183</v>
       </c>
@@ -24711,55 +24715,55 @@
       </c>
       <c r="D328" s="2"/>
     </row>
-    <row r="329" spans="1:4" ht="90">
+    <row r="329" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A329" s="5" t="s">
         <v>184</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>733</v>
       </c>
       <c r="D329" s="2"/>
     </row>
-    <row r="330" spans="1:4" ht="54">
+    <row r="330" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A330" s="5" t="s">
         <v>211</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>734</v>
       </c>
       <c r="D330" s="2"/>
     </row>
-    <row r="331" spans="1:4" ht="90">
+    <row r="331" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A331" s="5" t="s">
         <v>212</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>735</v>
       </c>
       <c r="D331" s="2"/>
     </row>
-    <row r="332" spans="1:4" ht="72">
+    <row r="332" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A332" s="5" t="s">
         <v>213</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>736</v>
       </c>
       <c r="D332" s="2"/>
     </row>
-    <row r="333" spans="1:4" ht="90">
+    <row r="333" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A333" s="5" t="s">
         <v>214</v>
       </c>
@@ -24771,7 +24775,7 @@
       </c>
       <c r="D333" s="2"/>
     </row>
-    <row r="334" spans="1:4" ht="90">
+    <row r="334" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A334" s="5" t="s">
         <v>215</v>
       </c>
@@ -24783,19 +24787,19 @@
       </c>
       <c r="D334" s="2"/>
     </row>
-    <row r="335" spans="1:4" ht="108">
+    <row r="335" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A335" s="5" t="s">
         <v>216</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="C335" s="5" t="s">
         <v>741</v>
       </c>
       <c r="D335" s="2"/>
     </row>
-    <row r="336" spans="1:4" ht="90">
+    <row r="336" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A336" s="5" t="s">
         <v>217</v>
       </c>
@@ -24807,67 +24811,67 @@
       </c>
       <c r="D336" s="2"/>
     </row>
-    <row r="337" spans="1:4" ht="72">
+    <row r="337" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A337" s="5" t="s">
         <v>218</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>744</v>
       </c>
       <c r="D337" s="2"/>
     </row>
-    <row r="338" spans="1:4" ht="90">
+    <row r="338" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A338" s="5" t="s">
         <v>219</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>745</v>
       </c>
       <c r="D338" s="2"/>
     </row>
-    <row r="339" spans="1:4" ht="90">
+    <row r="339" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A339" s="5" t="s">
         <v>220</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>746</v>
       </c>
       <c r="D339" s="2"/>
     </row>
-    <row r="340" spans="1:4" ht="90">
+    <row r="340" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A340" s="5" t="s">
         <v>221</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C340" s="5" t="s">
         <v>747</v>
       </c>
       <c r="D340" s="2"/>
     </row>
-    <row r="341" spans="1:4" ht="72">
+    <row r="341" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A341" s="5" t="s">
         <v>222</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C341" s="5" t="s">
         <v>748</v>
       </c>
       <c r="D341" s="2"/>
     </row>
-    <row r="342" spans="1:4" ht="90">
+    <row r="342" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A342" s="5" t="s">
         <v>223</v>
       </c>
@@ -24879,7 +24883,7 @@
       </c>
       <c r="D342" s="2"/>
     </row>
-    <row r="343" spans="1:4" ht="90">
+    <row r="343" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A343" s="5" t="s">
         <v>224</v>
       </c>
@@ -24891,19 +24895,19 @@
       </c>
       <c r="D343" s="2"/>
     </row>
-    <row r="344" spans="1:4" ht="72">
+    <row r="344" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A344" s="5" t="s">
         <v>225</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>753</v>
       </c>
       <c r="D344" s="2"/>
     </row>
-    <row r="345" spans="1:4" ht="58.5">
+    <row r="345" spans="1:4" ht="58.5" x14ac:dyDescent="0.25">
       <c r="A345" s="7"/>
       <c r="B345" s="3" t="s">
         <v>834</v>
@@ -24911,19 +24915,19 @@
       <c r="C345" s="5"/>
       <c r="D345" s="2"/>
     </row>
-    <row r="346" spans="1:4" ht="108">
+    <row r="346" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A346" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B346" s="10" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="C346" s="5" t="s">
         <v>754</v>
       </c>
       <c r="D346" s="2"/>
     </row>
-    <row r="347" spans="1:4" ht="108">
+    <row r="347" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A347" s="5" t="s">
         <v>31</v>
       </c>
@@ -24935,19 +24939,19 @@
       </c>
       <c r="D347" s="2"/>
     </row>
-    <row r="348" spans="1:4" ht="72">
+    <row r="348" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A348" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>757</v>
       </c>
       <c r="D348" s="2"/>
     </row>
-    <row r="349" spans="1:4" ht="54">
+    <row r="349" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A349" s="5" t="s">
         <v>33</v>
       </c>
@@ -24959,19 +24963,19 @@
       </c>
       <c r="D349" s="2"/>
     </row>
-    <row r="350" spans="1:4" ht="90">
+    <row r="350" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A350" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>760</v>
       </c>
       <c r="D350" s="2"/>
     </row>
-    <row r="351" spans="1:4" ht="108">
+    <row r="351" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A351" s="5" t="s">
         <v>35</v>
       </c>
@@ -24983,7 +24987,7 @@
       </c>
       <c r="D351" s="2"/>
     </row>
-    <row r="352" spans="1:4" ht="90">
+    <row r="352" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A352" s="5" t="s">
         <v>36</v>
       </c>
@@ -24995,19 +24999,19 @@
       </c>
       <c r="D352" s="2"/>
     </row>
-    <row r="353" spans="1:4" ht="90">
+    <row r="353" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A353" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>764</v>
       </c>
       <c r="D353" s="2"/>
     </row>
-    <row r="354" spans="1:4" ht="90">
+    <row r="354" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A354" s="5" t="s">
         <v>38</v>
       </c>
@@ -25019,7 +25023,7 @@
       </c>
       <c r="D354" s="2"/>
     </row>
-    <row r="355" spans="1:4" ht="72">
+    <row r="355" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A355" s="5" t="s">
         <v>39</v>
       </c>
@@ -25031,43 +25035,43 @@
       </c>
       <c r="D355" s="2"/>
     </row>
-    <row r="356" spans="1:4" ht="72">
+    <row r="356" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A356" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>770</v>
       </c>
       <c r="D356" s="2"/>
     </row>
-    <row r="357" spans="1:4" ht="72">
+    <row r="357" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A357" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>771</v>
       </c>
       <c r="D357" s="2"/>
     </row>
-    <row r="358" spans="1:4" ht="90">
+    <row r="358" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A358" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>772</v>
       </c>
       <c r="D358" s="2"/>
     </row>
-    <row r="359" spans="1:4" ht="72">
+    <row r="359" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A359" s="5" t="s">
         <v>43</v>
       </c>
@@ -25079,19 +25083,19 @@
       </c>
       <c r="D359" s="2"/>
     </row>
-    <row r="360" spans="1:4" ht="90">
+    <row r="360" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C360" s="5" t="s">
         <v>775</v>
       </c>
       <c r="D360" s="2"/>
     </row>
-    <row r="361" spans="1:4" ht="108">
+    <row r="361" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="s">
         <v>45</v>
       </c>
@@ -25103,7 +25107,7 @@
       </c>
       <c r="D361" s="2"/>
     </row>
-    <row r="362" spans="1:4" ht="90">
+    <row r="362" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A362" s="5" t="s">
         <v>116</v>
       </c>
@@ -25115,7 +25119,7 @@
       </c>
       <c r="D362" s="2"/>
     </row>
-    <row r="363" spans="1:4" ht="90">
+    <row r="363" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A363" s="5" t="s">
         <v>117</v>
       </c>
@@ -25127,7 +25131,7 @@
       </c>
       <c r="D363" s="2"/>
     </row>
-    <row r="364" spans="1:4" ht="108">
+    <row r="364" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
         <v>137</v>
       </c>
@@ -25139,7 +25143,7 @@
       </c>
       <c r="D364" s="2"/>
     </row>
-    <row r="365" spans="1:4" ht="72">
+    <row r="365" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A365" s="5" t="s">
         <v>185</v>
       </c>
@@ -25151,43 +25155,43 @@
       </c>
       <c r="D365" s="2"/>
     </row>
-    <row r="366" spans="1:4" ht="72">
+    <row r="366" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A366" s="5" t="s">
         <v>186</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>786</v>
       </c>
       <c r="D366" s="2"/>
     </row>
-    <row r="367" spans="1:4" ht="90">
+    <row r="367" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A367" s="5" t="s">
         <v>187</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>787</v>
       </c>
       <c r="D367" s="2"/>
     </row>
-    <row r="368" spans="1:4" ht="90">
+    <row r="368" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A368" s="5" t="s">
         <v>188</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>788</v>
       </c>
       <c r="D368" s="2"/>
     </row>
-    <row r="369" spans="1:4" ht="90">
+    <row r="369" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A369" s="5" t="s">
         <v>189</v>
       </c>
@@ -25199,31 +25203,31 @@
       </c>
       <c r="D369" s="2"/>
     </row>
-    <row r="370" spans="1:4" ht="108">
+    <row r="370" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A370" s="5" t="s">
         <v>190</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>790</v>
       </c>
       <c r="D370" s="2"/>
     </row>
-    <row r="371" spans="1:4" ht="72">
+    <row r="371" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A371" s="5" t="s">
         <v>191</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>791</v>
       </c>
       <c r="D371" s="2"/>
     </row>
-    <row r="372" spans="1:4" ht="90">
+    <row r="372" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A372" s="5" t="s">
         <v>192</v>
       </c>
@@ -25235,14 +25239,14 @@
       </c>
       <c r="D372" s="2"/>
     </row>
-    <row r="373" spans="1:4" ht="39">
+    <row r="373" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="B373" s="3" t="s">
         <v>836</v>
       </c>
       <c r="C373" s="5"/>
       <c r="D373" s="2"/>
     </row>
-    <row r="374" spans="1:4" ht="108">
+    <row r="374" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
         <v>46</v>
       </c>
@@ -25254,7 +25258,7 @@
       </c>
       <c r="D374" s="2"/>
     </row>
-    <row r="375" spans="1:4" ht="90">
+    <row r="375" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
         <v>47</v>
       </c>
@@ -25266,7 +25270,7 @@
       </c>
       <c r="D375" s="2"/>
     </row>
-    <row r="376" spans="1:4" ht="90">
+    <row r="376" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A376" s="5" t="s">
         <v>48</v>
       </c>
@@ -25278,7 +25282,7 @@
       </c>
       <c r="D376" s="2"/>
     </row>
-    <row r="377" spans="1:4" ht="72">
+    <row r="377" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
         <v>49</v>
       </c>
@@ -25290,7 +25294,7 @@
       </c>
       <c r="D377" s="2"/>
     </row>
-    <row r="378" spans="1:4" ht="90">
+    <row r="378" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A378" s="5" t="s">
         <v>50</v>
       </c>
@@ -25302,7 +25306,7 @@
       </c>
       <c r="D378" s="2"/>
     </row>
-    <row r="379" spans="1:4" ht="72">
+    <row r="379" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A379" s="5" t="s">
         <v>51</v>
       </c>
@@ -25314,7 +25318,7 @@
       </c>
       <c r="D379" s="2"/>
     </row>
-    <row r="380" spans="1:4" ht="72">
+    <row r="380" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A380" s="5" t="s">
         <v>52</v>
       </c>
@@ -25326,7 +25330,7 @@
       </c>
       <c r="D380" s="2"/>
     </row>
-    <row r="381" spans="1:4" ht="72">
+    <row r="381" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
         <v>53</v>
       </c>
@@ -25338,7 +25342,7 @@
       </c>
       <c r="D381" s="2"/>
     </row>
-    <row r="382" spans="1:4" ht="72">
+    <row r="382" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
         <v>54</v>
       </c>
@@ -25350,7 +25354,7 @@
       </c>
       <c r="D382" s="2"/>
     </row>
-    <row r="383" spans="1:4" ht="72">
+    <row r="383" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A383" s="5" t="s">
         <v>55</v>
       </c>
@@ -25362,7 +25366,7 @@
       </c>
       <c r="D383" s="2"/>
     </row>
-    <row r="384" spans="1:4" ht="90">
+    <row r="384" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A384" s="5" t="s">
         <v>56</v>
       </c>
@@ -25374,7 +25378,7 @@
       </c>
       <c r="D384" s="2"/>
     </row>
-    <row r="385" spans="1:4" ht="90">
+    <row r="385" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
         <v>57</v>
       </c>
@@ -25386,7 +25390,7 @@
       </c>
       <c r="D385" s="2"/>
     </row>
-    <row r="386" spans="1:4" ht="72">
+    <row r="386" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
         <v>226</v>
       </c>
@@ -25398,7 +25402,7 @@
       </c>
       <c r="D386" s="2"/>
     </row>
-    <row r="387" spans="1:4" ht="72">
+    <row r="387" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
         <v>227</v>
       </c>
@@ -25410,31 +25414,31 @@
       </c>
       <c r="D387" s="2"/>
     </row>
-    <row r="388" spans="1:4" ht="108">
+    <row r="388" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
         <v>228</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>823</v>
       </c>
       <c r="D388" s="2"/>
     </row>
-    <row r="389" spans="1:4" ht="72">
+    <row r="389" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>824</v>
       </c>
       <c r="D389" s="2"/>
     </row>
-    <row r="390" spans="1:4" ht="90">
+    <row r="390" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
         <v>230</v>
       </c>
@@ -25446,7 +25450,7 @@
       </c>
       <c r="D390" s="2"/>
     </row>
-    <row r="391" spans="1:4" ht="90">
+    <row r="391" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
         <v>231</v>
       </c>
@@ -25458,7 +25462,7 @@
       </c>
       <c r="D391" s="2"/>
     </row>
-    <row r="392" spans="1:4" ht="54">
+    <row r="392" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A392" s="5" t="s">
         <v>232</v>
       </c>
@@ -25470,7 +25474,7 @@
       </c>
       <c r="D392" s="2"/>
     </row>
-    <row r="393" spans="1:4" ht="90">
+    <row r="393" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A393" s="5" t="s">
         <v>835</v>
       </c>
@@ -25482,7 +25486,7 @@
       </c>
       <c r="D393" s="2"/>
     </row>
-    <row r="394" spans="1:4" ht="72">
+    <row r="394" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
         <v>838</v>
       </c>
@@ -25494,7 +25498,7 @@
       </c>
       <c r="D394" s="2"/>
     </row>
-    <row r="395" spans="1:4" ht="72">
+    <row r="395" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="s">
         <v>839</v>
       </c>
@@ -25506,19 +25510,19 @@
       </c>
       <c r="D395" s="2"/>
     </row>
-    <row r="396" spans="1:4" ht="90">
+    <row r="396" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
         <v>840</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>848</v>
       </c>
       <c r="D396" s="2"/>
     </row>
-    <row r="397" spans="1:4" ht="72">
+    <row r="397" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="s">
         <v>841</v>
       </c>
@@ -25530,7 +25534,7 @@
       </c>
       <c r="D397" s="2"/>
     </row>
-    <row r="398" spans="1:4" ht="54">
+    <row r="398" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
         <v>842</v>
       </c>
@@ -25542,14 +25546,14 @@
       </c>
       <c r="D398" s="2"/>
     </row>
-    <row r="399" spans="1:4" ht="19.5">
+    <row r="399" spans="1:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B399" s="3" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C399" s="5"/>
       <c r="D399" s="2"/>
     </row>
-    <row r="400" spans="1:4" ht="72">
+    <row r="400" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A400" s="5" t="s">
         <v>58</v>
       </c>
@@ -25561,7 +25565,7 @@
       </c>
       <c r="D400" s="2"/>
     </row>
-    <row r="401" spans="1:4" ht="36">
+    <row r="401" spans="1:4" ht="36" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
         <v>59</v>
       </c>
@@ -25573,19 +25577,19 @@
       </c>
       <c r="D401" s="2"/>
     </row>
-    <row r="402" spans="1:4" ht="90">
+    <row r="402" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>857</v>
       </c>
       <c r="D402" s="2"/>
     </row>
-    <row r="403" spans="1:4" ht="90">
+    <row r="403" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
         <v>61</v>
       </c>
@@ -25597,7 +25601,7 @@
       </c>
       <c r="D403" s="2"/>
     </row>
-    <row r="404" spans="1:4" ht="108">
+    <row r="404" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A404" s="5" t="s">
         <v>62</v>
       </c>
@@ -25609,7 +25613,7 @@
       </c>
       <c r="D404" s="2"/>
     </row>
-    <row r="405" spans="1:4" ht="90">
+    <row r="405" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A405" s="5" t="s">
         <v>63</v>
       </c>
@@ -25621,19 +25625,19 @@
       </c>
       <c r="D405" s="2"/>
     </row>
-    <row r="406" spans="1:4" ht="90">
+    <row r="406" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A406" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>862</v>
       </c>
       <c r="D406" s="2"/>
     </row>
-    <row r="407" spans="1:4" ht="72">
+    <row r="407" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A407" s="5" t="s">
         <v>148</v>
       </c>
@@ -25645,43 +25649,43 @@
       </c>
       <c r="D407" s="2"/>
     </row>
-    <row r="408" spans="1:4" ht="72">
+    <row r="408" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A408" s="5" t="s">
         <v>149</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C408" s="5" t="s">
         <v>864</v>
       </c>
       <c r="D408" s="2"/>
     </row>
-    <row r="409" spans="1:4" ht="108">
+    <row r="409" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A409" s="5" t="s">
         <v>150</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C409" s="5" t="s">
         <v>868</v>
       </c>
       <c r="D409" s="2"/>
     </row>
-    <row r="410" spans="1:4" ht="72">
+    <row r="410" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
         <v>197</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C410" s="5" t="s">
         <v>869</v>
       </c>
       <c r="D410" s="2"/>
     </row>
-    <row r="411" spans="1:4" ht="90">
+    <row r="411" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
         <v>198</v>
       </c>
@@ -25693,7 +25697,7 @@
       </c>
       <c r="D411" s="2"/>
     </row>
-    <row r="412" spans="1:4" ht="90">
+    <row r="412" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
         <v>199</v>
       </c>
@@ -25705,7 +25709,7 @@
       </c>
       <c r="D412" s="2"/>
     </row>
-    <row r="413" spans="1:4" ht="72">
+    <row r="413" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
         <v>200</v>
       </c>
@@ -25717,19 +25721,19 @@
       </c>
       <c r="D413" s="2"/>
     </row>
-    <row r="414" spans="1:4" ht="90">
+    <row r="414" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A414" s="5" t="s">
         <v>201</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C414" s="5" t="s">
         <v>876</v>
       </c>
       <c r="D414" s="2"/>
     </row>
-    <row r="415" spans="1:4" ht="72">
+    <row r="415" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="s">
         <v>202</v>
       </c>
@@ -25741,19 +25745,19 @@
       </c>
       <c r="D415" s="2"/>
     </row>
-    <row r="416" spans="1:4" ht="90">
+    <row r="416" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
         <v>203</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="C416" s="5" t="s">
         <v>879</v>
       </c>
       <c r="D416" s="2"/>
     </row>
-    <row r="417" spans="1:4" ht="72">
+    <row r="417" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A417" s="5" t="s">
         <v>204</v>
       </c>
@@ -25765,7 +25769,7 @@
       </c>
       <c r="D417" s="2"/>
     </row>
-    <row r="418" spans="1:4" ht="72">
+    <row r="418" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
         <v>233</v>
       </c>
@@ -25777,7 +25781,7 @@
       </c>
       <c r="D418" s="2"/>
     </row>
-    <row r="419" spans="1:4" ht="108">
+    <row r="419" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
         <v>234</v>
       </c>
@@ -25789,7 +25793,7 @@
       </c>
       <c r="D419" s="2"/>
     </row>
-    <row r="420" spans="1:4" ht="72">
+    <row r="420" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
         <v>235</v>
       </c>
@@ -25801,43 +25805,43 @@
       </c>
       <c r="D420" s="2"/>
     </row>
-    <row r="421" spans="1:4" ht="108">
+    <row r="421" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
         <v>236</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C421" s="5" t="s">
         <v>885</v>
       </c>
       <c r="D421" s="2"/>
     </row>
-    <row r="422" spans="1:4" ht="90">
+    <row r="422" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
         <v>237</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C422" s="5" t="s">
         <v>886</v>
       </c>
       <c r="D422" s="2"/>
     </row>
-    <row r="423" spans="1:4" ht="108">
+    <row r="423" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
         <v>238</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="C423" s="5" t="s">
         <v>887</v>
       </c>
       <c r="D423" s="2"/>
     </row>
-    <row r="424" spans="1:4" ht="90">
+    <row r="424" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
         <v>239</v>
       </c>
@@ -25849,7 +25853,7 @@
       </c>
       <c r="D424" s="2"/>
     </row>
-    <row r="425" spans="1:4" ht="90">
+    <row r="425" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
         <v>240</v>
       </c>
@@ -25861,7 +25865,7 @@
       </c>
       <c r="D425" s="2"/>
     </row>
-    <row r="426" spans="1:4" ht="90">
+    <row r="426" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
         <v>241</v>
       </c>
@@ -25873,7 +25877,7 @@
       </c>
       <c r="D426" s="2"/>
     </row>
-    <row r="427" spans="1:4" ht="126">
+    <row r="427" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
         <v>242</v>
       </c>
@@ -25885,14 +25889,14 @@
       </c>
       <c r="D427" s="2"/>
     </row>
-    <row r="428" spans="1:4" ht="39">
+    <row r="428" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="B428" s="3" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C428" s="5"/>
       <c r="D428" s="2"/>
     </row>
-    <row r="429" spans="1:4" ht="72">
+    <row r="429" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
         <v>65</v>
       </c>
@@ -25904,7 +25908,7 @@
       </c>
       <c r="D429" s="2"/>
     </row>
-    <row r="430" spans="1:4" ht="36">
+    <row r="430" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
         <v>66</v>
       </c>
@@ -25916,7 +25920,7 @@
       </c>
       <c r="D430" s="2"/>
     </row>
-    <row r="431" spans="1:4" ht="90">
+    <row r="431" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
         <v>67</v>
       </c>
@@ -25928,7 +25932,7 @@
       </c>
       <c r="D431" s="2"/>
     </row>
-    <row r="432" spans="1:4" ht="72">
+    <row r="432" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
         <v>68</v>
       </c>
@@ -25940,7 +25944,7 @@
       </c>
       <c r="D432" s="2"/>
     </row>
-    <row r="433" spans="1:4" ht="72">
+    <row r="433" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
         <v>69</v>
       </c>
@@ -25952,7 +25956,7 @@
       </c>
       <c r="D433" s="2"/>
     </row>
-    <row r="434" spans="1:4" ht="90">
+    <row r="434" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
         <v>70</v>
       </c>
@@ -25964,19 +25968,19 @@
       </c>
       <c r="D434" s="2"/>
     </row>
-    <row r="435" spans="1:4" ht="54">
+    <row r="435" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
         <v>161</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C435" s="5" t="s">
         <v>904</v>
       </c>
       <c r="D435" s="2"/>
     </row>
-    <row r="436" spans="1:4" ht="108">
+    <row r="436" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
         <v>162</v>
       </c>
@@ -25988,7 +25992,7 @@
       </c>
       <c r="D436" s="2"/>
     </row>
-    <row r="437" spans="1:4" ht="108">
+    <row r="437" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
         <v>163</v>
       </c>
@@ -26000,19 +26004,19 @@
       </c>
       <c r="D437" s="2"/>
     </row>
-    <row r="438" spans="1:4" ht="54">
+    <row r="438" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
         <v>164</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C438" s="5" t="s">
         <v>915</v>
       </c>
       <c r="D438" s="2"/>
     </row>
-    <row r="439" spans="1:4" ht="90">
+    <row r="439" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
         <v>194</v>
       </c>
@@ -26024,7 +26028,7 @@
       </c>
       <c r="D439" s="2"/>
     </row>
-    <row r="440" spans="1:4" ht="108">
+    <row r="440" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
         <v>195</v>
       </c>
@@ -26036,7 +26040,7 @@
       </c>
       <c r="D440" s="2"/>
     </row>
-    <row r="441" spans="1:4" ht="72">
+    <row r="441" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
         <v>196</v>
       </c>
@@ -26048,7 +26052,7 @@
       </c>
       <c r="D441" s="2"/>
     </row>
-    <row r="442" spans="1:4" ht="54">
+    <row r="442" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
         <v>243</v>
       </c>
@@ -26060,7 +26064,7 @@
       </c>
       <c r="D442" s="2"/>
     </row>
-    <row r="443" spans="1:4" ht="90">
+    <row r="443" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
         <v>244</v>
       </c>
@@ -26072,7 +26076,7 @@
       </c>
       <c r="D443" s="2"/>
     </row>
-    <row r="444" spans="1:4" ht="90">
+    <row r="444" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
         <v>245</v>
       </c>
@@ -26084,7 +26088,7 @@
       </c>
       <c r="D444" s="2"/>
     </row>
-    <row r="445" spans="1:4" ht="72">
+    <row r="445" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="s">
         <v>246</v>
       </c>
@@ -26096,19 +26100,19 @@
       </c>
       <c r="D445" s="2"/>
     </row>
-    <row r="446" spans="1:4" ht="108">
+    <row r="446" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
         <v>247</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="C446" s="5" t="s">
         <v>930</v>
       </c>
       <c r="D446" s="2"/>
     </row>
-    <row r="447" spans="1:4" ht="90">
+    <row r="447" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="s">
         <v>248</v>
       </c>
@@ -26120,7 +26124,7 @@
       </c>
       <c r="D447" s="2"/>
     </row>
-    <row r="448" spans="1:4" ht="90">
+    <row r="448" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
         <v>249</v>
       </c>
@@ -26132,19 +26136,19 @@
       </c>
       <c r="D448" s="2"/>
     </row>
-    <row r="449" spans="1:4" ht="90">
+    <row r="449" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A449" s="5" t="s">
         <v>250</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="C449" s="5" t="s">
         <v>935</v>
       </c>
       <c r="D449" s="2"/>
     </row>
-    <row r="450" spans="1:4" ht="108">
+    <row r="450" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A450" s="5" t="s">
         <v>251</v>
       </c>
@@ -26156,7 +26160,7 @@
       </c>
       <c r="D450" s="2"/>
     </row>
-    <row r="451" spans="1:4" ht="54">
+    <row r="451" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="s">
         <v>252</v>
       </c>
@@ -26168,7 +26172,7 @@
       </c>
       <c r="D451" s="2"/>
     </row>
-    <row r="452" spans="1:4" ht="72">
+    <row r="452" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
         <v>253</v>
       </c>
@@ -26180,7 +26184,7 @@
       </c>
       <c r="D452" s="2"/>
     </row>
-    <row r="453" spans="1:4" ht="90">
+    <row r="453" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A453" s="5" t="s">
         <v>254</v>
       </c>
@@ -26192,7 +26196,7 @@
       </c>
       <c r="D453" s="2"/>
     </row>
-    <row r="454" spans="1:4" ht="90">
+    <row r="454" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A454" s="5" t="s">
         <v>255</v>
       </c>
@@ -26204,7 +26208,7 @@
       </c>
       <c r="D454" s="2"/>
     </row>
-    <row r="455" spans="1:4" ht="54">
+    <row r="455" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A455" s="5" t="s">
         <v>256</v>
       </c>
@@ -26216,7 +26220,7 @@
       </c>
       <c r="D455" s="2"/>
     </row>
-    <row r="456" spans="1:4" ht="90">
+    <row r="456" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A456" s="5" t="s">
         <v>257</v>
       </c>
@@ -26228,7 +26232,7 @@
       </c>
       <c r="D456" s="2"/>
     </row>
-    <row r="457" spans="1:4" ht="108">
+    <row r="457" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A457" s="5" t="s">
         <v>258</v>
       </c>
@@ -26240,19 +26244,19 @@
       </c>
       <c r="D457" s="2"/>
     </row>
-    <row r="458" spans="1:4" ht="90">
+    <row r="458" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A458" s="5" t="s">
         <v>259</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C458" s="5" t="s">
         <v>948</v>
       </c>
       <c r="D458" s="2"/>
     </row>
-    <row r="459" spans="1:4" ht="108">
+    <row r="459" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A459" s="5" t="s">
         <v>260</v>
       </c>
@@ -26264,14 +26268,14 @@
       </c>
       <c r="D459" s="2"/>
     </row>
-    <row r="460" spans="1:4" ht="39">
+    <row r="460" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="B460" s="3" t="s">
         <v>970</v>
       </c>
       <c r="C460" s="5"/>
       <c r="D460" s="2"/>
     </row>
-    <row r="461" spans="1:4" ht="90">
+    <row r="461" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A461" s="5">
         <v>11.1</v>
       </c>
@@ -26283,7 +26287,7 @@
       </c>
       <c r="D461" s="2"/>
     </row>
-    <row r="462" spans="1:4" ht="72">
+    <row r="462" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A462" s="5">
         <v>11.2</v>
       </c>
@@ -26295,7 +26299,7 @@
       </c>
       <c r="D462" s="2"/>
     </row>
-    <row r="463" spans="1:4" ht="90">
+    <row r="463" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A463" s="5">
         <v>11.3</v>
       </c>
@@ -26307,19 +26311,19 @@
       </c>
       <c r="D463" s="2"/>
     </row>
-    <row r="464" spans="1:4" ht="72">
+    <row r="464" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A464" s="5">
         <v>11.4</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>961</v>
       </c>
       <c r="D464" s="2"/>
     </row>
-    <row r="465" spans="1:4" ht="90">
+    <row r="465" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A465" s="5">
         <v>11.5</v>
       </c>
@@ -26331,55 +26335,55 @@
       </c>
       <c r="D465" s="2"/>
     </row>
-    <row r="466" spans="1:4" ht="90">
+    <row r="466" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A466" s="5">
         <v>11.6</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>964</v>
       </c>
       <c r="D466" s="2"/>
     </row>
-    <row r="467" spans="1:4" ht="72">
+    <row r="467" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A467" s="5">
         <v>11.7</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="C467" s="5" t="s">
         <v>965</v>
       </c>
       <c r="D467" s="2"/>
     </row>
-    <row r="468" spans="1:4" ht="72">
+    <row r="468" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A468" s="5">
         <v>11.8</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="C468" s="5" t="s">
         <v>966</v>
       </c>
       <c r="D468" s="2"/>
     </row>
-    <row r="469" spans="1:4" ht="108">
+    <row r="469" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A469" s="5">
         <v>11.9</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="C469" s="5" t="s">
         <v>967</v>
       </c>
       <c r="D469" s="2"/>
     </row>
-    <row r="470" spans="1:4" ht="72">
+    <row r="470" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A470" s="5" t="s">
         <v>71</v>
       </c>
@@ -26391,7 +26395,7 @@
       </c>
       <c r="D470" s="2"/>
     </row>
-    <row r="471" spans="1:4" ht="72">
+    <row r="471" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A471" s="5" t="s">
         <v>72</v>
       </c>
@@ -26403,7 +26407,7 @@
       </c>
       <c r="D471" s="2"/>
     </row>
-    <row r="472" spans="1:4" ht="72">
+    <row r="472" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A472" s="5" t="s">
         <v>73</v>
       </c>
@@ -26415,7 +26419,7 @@
       </c>
       <c r="D472" s="2"/>
     </row>
-    <row r="473" spans="1:4" ht="72">
+    <row r="473" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A473" s="5" t="s">
         <v>74</v>
       </c>
@@ -26427,19 +26431,19 @@
       </c>
       <c r="D473" s="2"/>
     </row>
-    <row r="474" spans="1:4" ht="54">
+    <row r="474" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A474" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="C474" s="5" t="s">
         <v>977</v>
       </c>
       <c r="D474" s="2"/>
     </row>
-    <row r="475" spans="1:4" ht="54">
+    <row r="475" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A475" s="5" t="s">
         <v>76</v>
       </c>
@@ -26451,19 +26455,19 @@
       </c>
       <c r="D475" s="2"/>
     </row>
-    <row r="476" spans="1:4" ht="72">
+    <row r="476" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A476" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C476" s="5" t="s">
         <v>980</v>
       </c>
       <c r="D476" s="2"/>
     </row>
-    <row r="477" spans="1:4" ht="54">
+    <row r="477" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A477" s="5" t="s">
         <v>78</v>
       </c>
@@ -26475,7 +26479,7 @@
       </c>
       <c r="D477" s="2"/>
     </row>
-    <row r="478" spans="1:4" ht="72">
+    <row r="478" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A478" s="5" t="s">
         <v>79</v>
       </c>
@@ -26487,7 +26491,7 @@
       </c>
       <c r="D478" s="2"/>
     </row>
-    <row r="479" spans="1:4" ht="108">
+    <row r="479" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A479" s="5" t="s">
         <v>80</v>
       </c>
@@ -26499,19 +26503,19 @@
       </c>
       <c r="D479" s="2"/>
     </row>
-    <row r="480" spans="1:4" ht="54">
+    <row r="480" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A480" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C480" s="5" t="s">
         <v>987</v>
       </c>
       <c r="D480" s="2"/>
     </row>
-    <row r="481" spans="1:4" ht="54">
+    <row r="481" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A481" s="5" t="s">
         <v>988</v>
       </c>
@@ -26523,7 +26527,7 @@
       </c>
       <c r="D481" s="2"/>
     </row>
-    <row r="482" spans="1:4" ht="90">
+    <row r="482" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A482" s="5" t="s">
         <v>989</v>
       </c>
@@ -26535,19 +26539,19 @@
       </c>
       <c r="D482" s="2"/>
     </row>
-    <row r="483" spans="1:4" ht="72">
+    <row r="483" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A483" s="5" t="s">
         <v>990</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="C483" s="5" t="s">
         <v>999</v>
       </c>
       <c r="D483" s="2"/>
     </row>
-    <row r="484" spans="1:4" ht="54">
+    <row r="484" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A484" s="5" t="s">
         <v>991</v>
       </c>
@@ -26559,7 +26563,7 @@
       </c>
       <c r="D484" s="2"/>
     </row>
-    <row r="485" spans="1:4" ht="54">
+    <row r="485" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A485" s="5" t="s">
         <v>992</v>
       </c>
@@ -26571,19 +26575,19 @@
       </c>
       <c r="D485" s="2"/>
     </row>
-    <row r="486" spans="1:4" ht="72">
+    <row r="486" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A486" s="5" t="s">
         <v>993</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="C486" s="5" t="s">
         <v>1002</v>
       </c>
       <c r="D486" s="2"/>
     </row>
-    <row r="487" spans="1:4" ht="90">
+    <row r="487" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A487" s="5" t="s">
         <v>994</v>
       </c>
@@ -26595,7 +26599,7 @@
       </c>
       <c r="D487" s="2"/>
     </row>
-    <row r="488" spans="1:4" ht="90">
+    <row r="488" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A488" s="5" t="s">
         <v>995</v>
       </c>
@@ -26607,62 +26611,62 @@
       </c>
       <c r="D488" s="2"/>
     </row>
-    <row r="489" spans="1:4" ht="39">
+    <row r="489" spans="1:4" ht="39" x14ac:dyDescent="0.25">
       <c r="B489" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C489" s="5"/>
       <c r="D489" s="2"/>
     </row>
-    <row r="490" spans="1:4" ht="90">
+    <row r="490" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A490" s="5" t="s">
         <v>165</v>
       </c>
       <c r="B490" s="10" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="C490" s="5" t="s">
         <v>1010</v>
       </c>
       <c r="D490" s="2"/>
     </row>
-    <row r="491" spans="1:4" ht="72">
+    <row r="491" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A491" s="5" t="s">
         <v>166</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C491" s="5" t="s">
         <v>1011</v>
       </c>
       <c r="D491" s="2"/>
     </row>
-    <row r="492" spans="1:4" ht="108">
+    <row r="492" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A492" s="5" t="s">
         <v>167</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C492" s="5" t="s">
         <v>1012</v>
       </c>
       <c r="D492" s="2"/>
     </row>
-    <row r="493" spans="1:4" ht="72">
+    <row r="493" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A493" s="5" t="s">
         <v>168</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C493" s="5" t="s">
         <v>1013</v>
       </c>
       <c r="D493" s="2"/>
     </row>
-    <row r="494" spans="1:4" ht="72">
+    <row r="494" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A494" s="5" t="s">
         <v>169</v>
       </c>
@@ -26674,7 +26678,7 @@
       </c>
       <c r="D494" s="2"/>
     </row>
-    <row r="495" spans="1:4" ht="72">
+    <row r="495" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A495" s="5" t="s">
         <v>170</v>
       </c>
@@ -26686,7 +26690,7 @@
       </c>
       <c r="D495" s="2"/>
     </row>
-    <row r="496" spans="1:4" ht="90">
+    <row r="496" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A496" s="5" t="s">
         <v>171</v>
       </c>
@@ -26698,19 +26702,19 @@
       </c>
       <c r="D496" s="2"/>
     </row>
-    <row r="497" spans="1:4" ht="72">
+    <row r="497" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A497" s="5" t="s">
         <v>172</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C497" s="5" t="s">
         <v>1019</v>
       </c>
       <c r="D497" s="2"/>
     </row>
-    <row r="498" spans="1:4" ht="54">
+    <row r="498" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A498" s="5" t="s">
         <v>173</v>
       </c>
@@ -26722,31 +26726,31 @@
       </c>
       <c r="D498" s="2"/>
     </row>
-    <row r="499" spans="1:4" ht="90">
+    <row r="499" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A499" s="5" t="s">
         <v>174</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C499" s="5" t="s">
         <v>1021</v>
       </c>
       <c r="D499" s="2"/>
     </row>
-    <row r="500" spans="1:4" ht="54">
+    <row r="500" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A500" s="5" t="s">
         <v>175</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="C500" s="5" t="s">
         <v>1022</v>
       </c>
       <c r="D500" s="2"/>
     </row>
-    <row r="501" spans="1:4" ht="90">
+    <row r="501" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A501" s="5" t="s">
         <v>1027</v>
       </c>
@@ -26758,31 +26762,31 @@
       </c>
       <c r="D501" s="2"/>
     </row>
-    <row r="502" spans="1:4" ht="108">
+    <row r="502" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A502" s="5" t="s">
         <v>1028</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="C502" s="5" t="s">
         <v>1024</v>
       </c>
       <c r="D502" s="2"/>
     </row>
-    <row r="503" spans="1:4" ht="72">
+    <row r="503" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A503" s="5" t="s">
         <v>1029</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C503" s="5" t="s">
         <v>1041</v>
       </c>
       <c r="D503" s="2"/>
     </row>
-    <row r="504" spans="1:4" ht="108">
+    <row r="504" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A504" s="5" t="s">
         <v>1030</v>
       </c>
@@ -26794,7 +26798,7 @@
       </c>
       <c r="D504" s="2"/>
     </row>
-    <row r="505" spans="1:4" ht="90">
+    <row r="505" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A505" s="5" t="s">
         <v>1031</v>
       </c>
@@ -26806,91 +26810,91 @@
       </c>
       <c r="D505" s="2"/>
     </row>
-    <row r="506" spans="1:4" ht="72">
+    <row r="506" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A506" s="5" t="s">
         <v>1032</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C506" s="5" t="s">
         <v>1046</v>
       </c>
       <c r="D506" s="2"/>
     </row>
-    <row r="507" spans="1:4" ht="72">
+    <row r="507" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A507" s="5" t="s">
         <v>1033</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="C507" s="5" t="s">
         <v>1047</v>
       </c>
       <c r="D507" s="2"/>
     </row>
-    <row r="508" spans="1:4" ht="72">
+    <row r="508" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A508" s="5" t="s">
         <v>1034</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="C508" s="5" t="s">
         <v>1048</v>
       </c>
       <c r="D508" s="2"/>
     </row>
-    <row r="509" spans="1:4" ht="90">
+    <row r="509" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A509" s="5" t="s">
         <v>1035</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="C509" s="5" t="s">
         <v>1049</v>
       </c>
       <c r="D509" s="2"/>
     </row>
-    <row r="510" spans="1:4" ht="90">
+    <row r="510" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A510" s="5" t="s">
         <v>1036</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C510" s="5" t="s">
         <v>1050</v>
       </c>
       <c r="D510" s="2"/>
     </row>
-    <row r="511" spans="1:4" ht="90">
+    <row r="511" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A511" s="5" t="s">
         <v>1037</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C511" s="5" t="s">
         <v>1051</v>
       </c>
       <c r="D511" s="2"/>
     </row>
-    <row r="512" spans="1:4" ht="90">
+    <row r="512" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A512" s="5" t="s">
         <v>1038</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C512" s="5" t="s">
         <v>1052</v>
       </c>
       <c r="D512" s="2"/>
     </row>
-    <row r="513" spans="1:4" ht="72">
+    <row r="513" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A513" s="5" t="s">
         <v>1039</v>
       </c>
@@ -26902,7 +26906,7 @@
       </c>
       <c r="D513" s="2"/>
     </row>
-    <row r="514" spans="1:4" ht="108">
+    <row r="514" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A514" s="5" t="s">
         <v>1057</v>
       </c>
@@ -26914,19 +26918,19 @@
       </c>
       <c r="D514" s="2"/>
     </row>
-    <row r="515" spans="1:4" ht="108">
+    <row r="515" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A515" s="5" t="s">
         <v>1058</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C515" s="5" t="s">
         <v>1055</v>
       </c>
       <c r="D515" s="2"/>
     </row>
-    <row r="516" spans="1:4" ht="90">
+    <row r="516" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A516" s="5" t="s">
         <v>1059</v>
       </c>
@@ -26938,7 +26942,7 @@
       </c>
       <c r="D516" s="2"/>
     </row>
-    <row r="517" spans="1:4" ht="72">
+    <row r="517" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A517" s="5" t="s">
         <v>1060</v>
       </c>
@@ -26950,7 +26954,7 @@
       </c>
       <c r="D517" s="2"/>
     </row>
-    <row r="518" spans="1:4" ht="90">
+    <row r="518" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A518" s="5" t="s">
         <v>1061</v>
       </c>
@@ -26962,7 +26966,7 @@
       </c>
       <c r="D518" s="2"/>
     </row>
-    <row r="519" spans="1:4" ht="54">
+    <row r="519" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A519" s="5" t="s">
         <v>1062</v>
       </c>
@@ -26974,19 +26978,19 @@
       </c>
       <c r="D519" s="2"/>
     </row>
-    <row r="520" spans="1:4" ht="72">
+    <row r="520" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A520" s="5" t="s">
         <v>1063</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C520" s="5" t="s">
         <v>1076</v>
       </c>
       <c r="D520" s="2"/>
     </row>
-    <row r="521" spans="1:4" ht="90">
+    <row r="521" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A521" s="5" t="s">
         <v>1064</v>
       </c>
@@ -26998,31 +27002,31 @@
       </c>
       <c r="D521" s="2"/>
     </row>
-    <row r="522" spans="1:4" ht="72">
+    <row r="522" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A522" s="5" t="s">
         <v>1065</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C522" s="5" t="s">
         <v>1079</v>
       </c>
       <c r="D522" s="2"/>
     </row>
-    <row r="523" spans="1:4" ht="90">
+    <row r="523" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A523" s="5" t="s">
         <v>1066</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="C523" s="5" t="s">
         <v>1085</v>
       </c>
       <c r="D523" s="2"/>
     </row>
-    <row r="524" spans="1:4" ht="90">
+    <row r="524" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A524" s="5" t="s">
         <v>1080</v>
       </c>
@@ -27034,19 +27038,19 @@
       </c>
       <c r="D524" s="2"/>
     </row>
-    <row r="525" spans="1:4" ht="72">
+    <row r="525" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A525" s="5" t="s">
         <v>1081</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C525" s="5" t="s">
         <v>1088</v>
       </c>
       <c r="D525" s="2"/>
     </row>
-    <row r="526" spans="1:4" ht="72">
+    <row r="526" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A526" s="5" t="s">
         <v>1082</v>
       </c>
@@ -27058,7 +27062,7 @@
       </c>
       <c r="D526" s="2"/>
     </row>
-    <row r="527" spans="1:4" ht="90">
+    <row r="527" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A527" s="5" t="s">
         <v>1083</v>
       </c>
@@ -27070,7 +27074,7 @@
       </c>
       <c r="D527" s="2"/>
     </row>
-    <row r="528" spans="1:4" ht="72">
+    <row r="528" spans="1:4" ht="72" x14ac:dyDescent="0.25">
       <c r="A528" s="5" t="s">
         <v>1084</v>
       </c>
@@ -27082,769 +27086,767 @@
       </c>
       <c r="D528" s="2"/>
     </row>
-    <row r="529" spans="2:4">
+    <row r="529" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B529" s="1"/>
-      <c r="C529" s="5" t="s">
-        <v>1095</v>
-      </c>
+      <c r="C529" s="5"/>
       <c r="D529" s="2"/>
     </row>
-    <row r="530" spans="2:4">
+    <row r="530" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B530" s="1"/>
       <c r="C530" s="5"/>
       <c r="D530" s="2"/>
     </row>
-    <row r="531" spans="2:4">
+    <row r="531" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B531" s="1"/>
       <c r="D531" s="2"/>
     </row>
-    <row r="532" spans="2:4">
+    <row r="532" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B532" s="1"/>
       <c r="D532" s="2"/>
     </row>
-    <row r="533" spans="2:4">
+    <row r="533" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B533" s="1"/>
       <c r="D533" s="2"/>
     </row>
-    <row r="534" spans="2:4">
+    <row r="534" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B534" s="1"/>
       <c r="D534" s="2"/>
     </row>
-    <row r="535" spans="2:4">
+    <row r="535" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B535" s="1"/>
       <c r="D535" s="2"/>
     </row>
-    <row r="536" spans="2:4">
+    <row r="536" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B536" s="1"/>
       <c r="D536" s="2"/>
     </row>
-    <row r="537" spans="2:4">
+    <row r="537" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B537" s="1"/>
       <c r="D537" s="2"/>
     </row>
-    <row r="538" spans="2:4">
+    <row r="538" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B538" s="1"/>
       <c r="D538" s="2"/>
     </row>
-    <row r="539" spans="2:4">
+    <row r="539" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B539" s="1"/>
       <c r="D539" s="2"/>
     </row>
-    <row r="540" spans="2:4">
+    <row r="540" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B540" s="1"/>
       <c r="D540" s="2"/>
     </row>
-    <row r="541" spans="2:4">
+    <row r="541" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B541" s="1"/>
       <c r="D541" s="2"/>
     </row>
-    <row r="542" spans="2:4">
+    <row r="542" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B542" s="1"/>
       <c r="D542" s="2"/>
     </row>
-    <row r="543" spans="2:4">
+    <row r="543" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B543" s="1"/>
       <c r="D543" s="2"/>
     </row>
-    <row r="544" spans="2:4">
+    <row r="544" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B544" s="1"/>
       <c r="D544" s="2"/>
     </row>
-    <row r="545" spans="2:4">
+    <row r="545" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B545" s="1"/>
       <c r="D545" s="2"/>
     </row>
-    <row r="546" spans="2:4">
+    <row r="546" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B546" s="1"/>
       <c r="D546" s="2"/>
     </row>
-    <row r="547" spans="2:4">
+    <row r="547" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B547" s="1"/>
       <c r="D547" s="2"/>
     </row>
-    <row r="548" spans="2:4">
+    <row r="548" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B548" s="1"/>
       <c r="D548" s="2"/>
     </row>
-    <row r="549" spans="2:4">
+    <row r="549" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B549" s="1"/>
       <c r="D549" s="2"/>
     </row>
-    <row r="550" spans="2:4">
+    <row r="550" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B550" s="1"/>
       <c r="D550" s="2"/>
     </row>
-    <row r="551" spans="2:4">
+    <row r="551" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B551" s="1"/>
       <c r="D551" s="2"/>
     </row>
-    <row r="552" spans="2:4">
+    <row r="552" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B552" s="1"/>
       <c r="D552" s="2"/>
     </row>
-    <row r="553" spans="2:4">
+    <row r="553" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B553" s="1"/>
       <c r="D553" s="2"/>
     </row>
-    <row r="554" spans="2:4">
+    <row r="554" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B554" s="1"/>
       <c r="D554" s="2"/>
     </row>
-    <row r="555" spans="2:4">
+    <row r="555" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B555" s="1"/>
       <c r="D555" s="2"/>
     </row>
-    <row r="556" spans="2:4">
+    <row r="556" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B556" s="1"/>
       <c r="D556" s="2"/>
     </row>
-    <row r="557" spans="2:4">
+    <row r="557" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B557" s="1"/>
       <c r="D557" s="2"/>
     </row>
-    <row r="558" spans="2:4">
+    <row r="558" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B558" s="1"/>
       <c r="D558" s="2"/>
     </row>
-    <row r="559" spans="2:4">
+    <row r="559" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B559" s="1"/>
       <c r="D559" s="2"/>
     </row>
-    <row r="560" spans="2:4">
+    <row r="560" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B560" s="1"/>
       <c r="D560" s="2"/>
     </row>
-    <row r="561" spans="2:4">
+    <row r="561" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B561" s="1"/>
       <c r="D561" s="2"/>
     </row>
-    <row r="562" spans="2:4">
+    <row r="562" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B562" s="1"/>
       <c r="D562" s="2"/>
     </row>
-    <row r="563" spans="2:4">
+    <row r="563" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B563" s="1"/>
       <c r="D563" s="2"/>
     </row>
-    <row r="564" spans="2:4">
+    <row r="564" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B564" s="1"/>
       <c r="D564" s="2"/>
     </row>
-    <row r="565" spans="2:4">
+    <row r="565" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B565" s="1"/>
       <c r="D565" s="2"/>
     </row>
-    <row r="566" spans="2:4">
+    <row r="566" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B566" s="1"/>
       <c r="D566" s="2"/>
     </row>
-    <row r="567" spans="2:4">
+    <row r="567" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B567" s="1"/>
       <c r="D567" s="2"/>
     </row>
-    <row r="568" spans="2:4">
+    <row r="568" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B568" s="1"/>
       <c r="D568" s="2"/>
     </row>
-    <row r="569" spans="2:4">
+    <row r="569" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B569" s="1"/>
       <c r="D569" s="2"/>
     </row>
-    <row r="570" spans="2:4">
+    <row r="570" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B570" s="1"/>
       <c r="D570" s="2"/>
     </row>
-    <row r="571" spans="2:4">
+    <row r="571" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B571" s="1"/>
       <c r="D571" s="2"/>
     </row>
-    <row r="572" spans="2:4">
+    <row r="572" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B572" s="1"/>
       <c r="D572" s="2"/>
     </row>
-    <row r="573" spans="2:4">
+    <row r="573" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B573" s="1"/>
       <c r="D573" s="2"/>
     </row>
-    <row r="574" spans="2:4">
+    <row r="574" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B574" s="1"/>
       <c r="D574" s="2"/>
     </row>
-    <row r="575" spans="2:4">
+    <row r="575" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B575" s="1"/>
       <c r="D575" s="2"/>
     </row>
-    <row r="576" spans="2:4">
+    <row r="576" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B576" s="1"/>
       <c r="D576" s="2"/>
     </row>
-    <row r="577" spans="2:4">
+    <row r="577" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B577" s="1"/>
       <c r="D577" s="2"/>
     </row>
-    <row r="578" spans="2:4">
+    <row r="578" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B578" s="1"/>
       <c r="D578" s="2"/>
     </row>
-    <row r="579" spans="2:4">
+    <row r="579" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B579" s="1"/>
       <c r="D579" s="2"/>
     </row>
-    <row r="580" spans="2:4">
+    <row r="580" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B580" s="1"/>
       <c r="D580" s="2"/>
     </row>
-    <row r="581" spans="2:4">
+    <row r="581" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B581" s="1"/>
       <c r="D581" s="2"/>
     </row>
-    <row r="582" spans="2:4">
+    <row r="582" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B582" s="1"/>
       <c r="D582" s="2"/>
     </row>
-    <row r="583" spans="2:4">
+    <row r="583" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B583" s="1"/>
       <c r="D583" s="2"/>
     </row>
-    <row r="584" spans="2:4">
+    <row r="584" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B584" s="1"/>
       <c r="D584" s="2"/>
     </row>
-    <row r="585" spans="2:4">
+    <row r="585" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B585" s="1"/>
       <c r="D585" s="2"/>
     </row>
-    <row r="586" spans="2:4">
+    <row r="586" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B586" s="1"/>
       <c r="D586" s="2"/>
     </row>
-    <row r="587" spans="2:4">
+    <row r="587" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B587" s="1"/>
       <c r="D587" s="2"/>
     </row>
-    <row r="588" spans="2:4">
+    <row r="588" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B588" s="1"/>
       <c r="D588" s="2"/>
     </row>
-    <row r="589" spans="2:4">
+    <row r="589" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B589" s="1"/>
       <c r="D589" s="2"/>
     </row>
-    <row r="590" spans="2:4">
+    <row r="590" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B590" s="1"/>
       <c r="D590" s="2"/>
     </row>
-    <row r="591" spans="2:4">
+    <row r="591" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B591" s="1"/>
       <c r="D591" s="2"/>
     </row>
-    <row r="592" spans="2:4">
+    <row r="592" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B592" s="1"/>
       <c r="D592" s="2"/>
     </row>
-    <row r="593" spans="2:4">
+    <row r="593" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B593" s="1"/>
       <c r="D593" s="2"/>
     </row>
-    <row r="594" spans="2:4">
+    <row r="594" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B594" s="1"/>
       <c r="D594" s="2"/>
     </row>
-    <row r="595" spans="2:4">
+    <row r="595" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B595" s="1"/>
       <c r="D595" s="2"/>
     </row>
-    <row r="596" spans="2:4">
+    <row r="596" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B596" s="1"/>
       <c r="D596" s="2"/>
     </row>
-    <row r="597" spans="2:4">
+    <row r="597" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B597" s="1"/>
       <c r="D597" s="2"/>
     </row>
-    <row r="598" spans="2:4">
+    <row r="598" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B598" s="1"/>
       <c r="D598" s="2"/>
     </row>
-    <row r="599" spans="2:4">
+    <row r="599" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B599" s="1"/>
       <c r="D599" s="2"/>
     </row>
-    <row r="600" spans="2:4">
+    <row r="600" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B600" s="1"/>
       <c r="D600" s="2"/>
     </row>
-    <row r="601" spans="2:4">
+    <row r="601" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B601" s="1"/>
       <c r="D601" s="2"/>
     </row>
-    <row r="602" spans="2:4">
+    <row r="602" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B602" s="1"/>
       <c r="D602" s="2"/>
     </row>
-    <row r="603" spans="2:4">
+    <row r="603" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B603" s="1"/>
       <c r="D603" s="2"/>
     </row>
-    <row r="604" spans="2:4">
+    <row r="604" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B604" s="1"/>
       <c r="D604" s="2"/>
     </row>
-    <row r="605" spans="2:4">
+    <row r="605" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B605" s="1"/>
       <c r="D605" s="2"/>
     </row>
-    <row r="606" spans="2:4">
+    <row r="606" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B606" s="1"/>
       <c r="D606" s="2"/>
     </row>
-    <row r="607" spans="2:4">
+    <row r="607" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B607" s="1"/>
       <c r="D607" s="2"/>
     </row>
-    <row r="608" spans="2:4">
+    <row r="608" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B608" s="1"/>
       <c r="D608" s="2"/>
     </row>
-    <row r="609" spans="2:4">
+    <row r="609" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B609" s="1"/>
       <c r="D609" s="2"/>
     </row>
-    <row r="610" spans="2:4">
+    <row r="610" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B610" s="1"/>
       <c r="D610" s="2"/>
     </row>
-    <row r="611" spans="2:4">
+    <row r="611" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B611" s="1"/>
       <c r="D611" s="2"/>
     </row>
-    <row r="612" spans="2:4">
+    <row r="612" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B612" s="1"/>
       <c r="D612" s="2"/>
     </row>
-    <row r="613" spans="2:4">
+    <row r="613" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B613" s="1"/>
       <c r="D613" s="2"/>
     </row>
-    <row r="614" spans="2:4">
+    <row r="614" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B614" s="1"/>
       <c r="D614" s="2"/>
     </row>
-    <row r="615" spans="2:4">
+    <row r="615" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B615" s="1"/>
       <c r="D615" s="2"/>
     </row>
-    <row r="616" spans="2:4">
+    <row r="616" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B616" s="1"/>
       <c r="D616" s="2"/>
     </row>
-    <row r="617" spans="2:4">
+    <row r="617" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B617" s="1"/>
       <c r="D617" s="2"/>
     </row>
-    <row r="618" spans="2:4">
+    <row r="618" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B618" s="1"/>
       <c r="D618" s="2"/>
     </row>
-    <row r="619" spans="2:4">
+    <row r="619" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B619" s="1"/>
       <c r="D619" s="2"/>
     </row>
-    <row r="620" spans="2:4">
+    <row r="620" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B620" s="1"/>
       <c r="D620" s="2"/>
     </row>
-    <row r="621" spans="2:4">
+    <row r="621" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B621" s="1"/>
       <c r="D621" s="2"/>
     </row>
-    <row r="622" spans="2:4">
+    <row r="622" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B622" s="1"/>
       <c r="D622" s="2"/>
     </row>
-    <row r="623" spans="2:4">
+    <row r="623" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B623" s="1"/>
       <c r="D623" s="2"/>
     </row>
-    <row r="624" spans="2:4">
+    <row r="624" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B624" s="1"/>
       <c r="D624" s="2"/>
     </row>
-    <row r="625" spans="2:4">
+    <row r="625" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B625" s="1"/>
       <c r="D625" s="2"/>
     </row>
-    <row r="626" spans="2:4">
+    <row r="626" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B626" s="1"/>
       <c r="D626" s="2"/>
     </row>
-    <row r="627" spans="2:4">
+    <row r="627" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B627" s="1"/>
       <c r="D627" s="2"/>
     </row>
-    <row r="628" spans="2:4">
+    <row r="628" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B628" s="1"/>
       <c r="D628" s="2"/>
     </row>
-    <row r="629" spans="2:4">
+    <row r="629" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B629" s="1"/>
       <c r="D629" s="2"/>
     </row>
-    <row r="630" spans="2:4">
+    <row r="630" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B630" s="1"/>
       <c r="D630" s="2"/>
     </row>
-    <row r="631" spans="2:4">
+    <row r="631" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B631" s="1"/>
       <c r="D631" s="2"/>
     </row>
-    <row r="632" spans="2:4">
+    <row r="632" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B632" s="1"/>
       <c r="D632" s="2"/>
     </row>
-    <row r="633" spans="2:4">
+    <row r="633" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B633" s="1"/>
       <c r="D633" s="2"/>
     </row>
-    <row r="634" spans="2:4">
+    <row r="634" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B634" s="1"/>
       <c r="D634" s="2"/>
     </row>
-    <row r="635" spans="2:4">
+    <row r="635" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B635" s="1"/>
       <c r="D635" s="2"/>
     </row>
-    <row r="636" spans="2:4">
+    <row r="636" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B636" s="1"/>
       <c r="D636" s="2"/>
     </row>
-    <row r="637" spans="2:4">
+    <row r="637" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B637" s="1"/>
       <c r="D637" s="2"/>
     </row>
-    <row r="638" spans="2:4">
+    <row r="638" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B638" s="1"/>
       <c r="D638" s="2"/>
     </row>
-    <row r="639" spans="2:4">
+    <row r="639" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B639" s="1"/>
       <c r="D639" s="2"/>
     </row>
-    <row r="640" spans="2:4">
+    <row r="640" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B640" s="1"/>
       <c r="D640" s="2"/>
     </row>
-    <row r="641" spans="2:4">
+    <row r="641" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B641" s="1"/>
       <c r="D641" s="2"/>
     </row>
-    <row r="642" spans="2:4">
+    <row r="642" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B642" s="1"/>
       <c r="D642" s="2"/>
     </row>
-    <row r="643" spans="2:4">
+    <row r="643" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B643" s="1"/>
       <c r="D643" s="2"/>
     </row>
-    <row r="644" spans="2:4">
+    <row r="644" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B644" s="1"/>
       <c r="D644" s="2"/>
     </row>
-    <row r="645" spans="2:4">
+    <row r="645" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B645" s="1"/>
       <c r="D645" s="2"/>
     </row>
-    <row r="646" spans="2:4">
+    <row r="646" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B646" s="1"/>
       <c r="D646" s="2"/>
     </row>
-    <row r="647" spans="2:4">
+    <row r="647" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B647" s="1"/>
       <c r="D647" s="2"/>
     </row>
-    <row r="648" spans="2:4">
+    <row r="648" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B648" s="1"/>
       <c r="D648" s="2"/>
     </row>
-    <row r="649" spans="2:4">
+    <row r="649" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B649" s="1"/>
       <c r="D649" s="2"/>
     </row>
-    <row r="650" spans="2:4">
+    <row r="650" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B650" s="1"/>
       <c r="D650" s="2"/>
     </row>
-    <row r="651" spans="2:4">
+    <row r="651" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B651" s="1"/>
       <c r="D651" s="2"/>
     </row>
-    <row r="652" spans="2:4">
+    <row r="652" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B652" s="1"/>
       <c r="D652" s="2"/>
     </row>
-    <row r="653" spans="2:4">
+    <row r="653" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B653" s="1"/>
       <c r="D653" s="2"/>
     </row>
-    <row r="654" spans="2:4">
+    <row r="654" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B654" s="1"/>
       <c r="D654" s="2"/>
     </row>
-    <row r="655" spans="2:4">
+    <row r="655" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B655" s="1"/>
       <c r="D655" s="2"/>
     </row>
-    <row r="656" spans="2:4">
+    <row r="656" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B656" s="1"/>
       <c r="D656" s="2"/>
     </row>
-    <row r="657" spans="2:4">
+    <row r="657" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B657" s="1"/>
       <c r="D657" s="2"/>
     </row>
-    <row r="658" spans="2:4">
+    <row r="658" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B658" s="1"/>
       <c r="D658" s="2"/>
     </row>
-    <row r="659" spans="2:4">
+    <row r="659" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B659" s="1"/>
       <c r="D659" s="2"/>
     </row>
-    <row r="660" spans="2:4">
+    <row r="660" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B660" s="1"/>
       <c r="D660" s="2"/>
     </row>
-    <row r="661" spans="2:4">
+    <row r="661" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B661" s="1"/>
       <c r="D661" s="2"/>
     </row>
-    <row r="662" spans="2:4">
+    <row r="662" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B662" s="1"/>
       <c r="D662" s="2"/>
     </row>
-    <row r="663" spans="2:4">
+    <row r="663" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B663" s="1"/>
       <c r="D663" s="2"/>
     </row>
-    <row r="664" spans="2:4">
+    <row r="664" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B664" s="1"/>
       <c r="D664" s="2"/>
     </row>
-    <row r="665" spans="2:4">
+    <row r="665" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B665" s="1"/>
       <c r="D665" s="2"/>
     </row>
-    <row r="666" spans="2:4">
+    <row r="666" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B666" s="1"/>
       <c r="D666" s="2"/>
     </row>
-    <row r="667" spans="2:4">
+    <row r="667" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B667" s="1"/>
       <c r="D667" s="2"/>
     </row>
-    <row r="668" spans="2:4">
+    <row r="668" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B668" s="1"/>
       <c r="D668" s="2"/>
     </row>
-    <row r="669" spans="2:4">
+    <row r="669" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B669" s="1"/>
       <c r="D669" s="2"/>
     </row>
-    <row r="670" spans="2:4">
+    <row r="670" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B670" s="1"/>
       <c r="D670" s="2"/>
     </row>
-    <row r="671" spans="2:4">
+    <row r="671" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B671" s="1"/>
       <c r="D671" s="2"/>
     </row>
-    <row r="672" spans="2:4">
+    <row r="672" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B672" s="1"/>
       <c r="D672" s="2"/>
     </row>
-    <row r="673" spans="2:4">
+    <row r="673" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B673" s="1"/>
       <c r="D673" s="2"/>
     </row>
-    <row r="674" spans="2:4">
+    <row r="674" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B674" s="1"/>
       <c r="D674" s="2"/>
     </row>
-    <row r="675" spans="2:4">
+    <row r="675" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B675" s="1"/>
       <c r="D675" s="2"/>
     </row>
-    <row r="676" spans="2:4">
+    <row r="676" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B676" s="1"/>
       <c r="D676" s="2"/>
     </row>
-    <row r="677" spans="2:4">
+    <row r="677" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B677" s="1"/>
       <c r="D677" s="2"/>
     </row>
-    <row r="678" spans="2:4">
+    <row r="678" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B678" s="1"/>
       <c r="D678" s="2"/>
     </row>
-    <row r="679" spans="2:4">
+    <row r="679" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B679" s="1"/>
       <c r="D679" s="2"/>
     </row>
-    <row r="680" spans="2:4">
+    <row r="680" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B680" s="1"/>
       <c r="D680" s="2"/>
     </row>
-    <row r="681" spans="2:4">
+    <row r="681" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B681" s="1"/>
       <c r="D681" s="2"/>
     </row>
-    <row r="682" spans="2:4">
+    <row r="682" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B682" s="1"/>
       <c r="D682" s="2"/>
     </row>
-    <row r="683" spans="2:4">
+    <row r="683" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B683" s="1"/>
       <c r="D683" s="2"/>
     </row>
-    <row r="684" spans="2:4">
+    <row r="684" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B684" s="1"/>
       <c r="D684" s="2"/>
     </row>
-    <row r="685" spans="2:4">
+    <row r="685" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B685" s="1"/>
       <c r="D685" s="2"/>
     </row>
-    <row r="686" spans="2:4">
+    <row r="686" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B686" s="1"/>
       <c r="D686" s="2"/>
     </row>
-    <row r="687" spans="2:4">
+    <row r="687" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B687" s="1"/>
       <c r="D687" s="2"/>
     </row>
-    <row r="688" spans="2:4">
+    <row r="688" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B688" s="1"/>
       <c r="D688" s="2"/>
     </row>
-    <row r="689" spans="2:4">
+    <row r="689" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B689" s="1"/>
       <c r="D689" s="2"/>
     </row>
-    <row r="690" spans="2:4">
+    <row r="690" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B690" s="1"/>
       <c r="D690" s="2"/>
     </row>
-    <row r="691" spans="2:4">
+    <row r="691" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B691" s="1"/>
       <c r="D691" s="2"/>
     </row>
-    <row r="692" spans="2:4">
+    <row r="692" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B692" s="1"/>
       <c r="D692" s="2"/>
     </row>
-    <row r="693" spans="2:4">
+    <row r="693" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B693" s="1"/>
       <c r="D693" s="2"/>
     </row>
-    <row r="694" spans="2:4">
+    <row r="694" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B694" s="1"/>
       <c r="D694" s="2"/>
     </row>
-    <row r="695" spans="2:4">
+    <row r="695" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B695" s="1"/>
       <c r="D695" s="2"/>
     </row>
-    <row r="696" spans="2:4">
+    <row r="696" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B696" s="1"/>
       <c r="D696" s="2"/>
     </row>
-    <row r="697" spans="2:4">
+    <row r="697" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B697" s="1"/>
       <c r="D697" s="2"/>
     </row>
-    <row r="698" spans="2:4">
+    <row r="698" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B698" s="1"/>
       <c r="D698" s="2"/>
     </row>
-    <row r="699" spans="2:4">
+    <row r="699" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B699" s="1"/>
       <c r="D699" s="2"/>
     </row>
-    <row r="700" spans="2:4">
+    <row r="700" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B700" s="1"/>
       <c r="D700" s="2"/>
     </row>
-    <row r="701" spans="2:4">
+    <row r="701" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B701" s="1"/>
       <c r="D701" s="2"/>
     </row>
-    <row r="702" spans="2:4">
+    <row r="702" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B702" s="1"/>
       <c r="D702" s="2"/>
     </row>
-    <row r="703" spans="2:4">
+    <row r="703" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B703" s="1"/>
       <c r="D703" s="2"/>
     </row>
-    <row r="704" spans="2:4">
+    <row r="704" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B704" s="1"/>
       <c r="D704" s="2"/>
     </row>
-    <row r="705" spans="2:4">
+    <row r="705" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B705" s="1"/>
       <c r="D705" s="2"/>
     </row>
-    <row r="706" spans="2:4">
+    <row r="706" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B706" s="1"/>
       <c r="D706" s="2"/>
     </row>
-    <row r="707" spans="2:4">
+    <row r="707" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B707" s="1"/>
       <c r="D707" s="2"/>
     </row>
-    <row r="708" spans="2:4">
+    <row r="708" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B708" s="1"/>
       <c r="D708" s="2"/>
     </row>
-    <row r="709" spans="2:4">
+    <row r="709" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B709" s="1"/>
       <c r="D709" s="2"/>
     </row>
-    <row r="710" spans="2:4">
+    <row r="710" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B710" s="1"/>
       <c r="D710" s="2"/>
     </row>
-    <row r="711" spans="2:4">
+    <row r="711" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B711" s="1"/>
       <c r="D711" s="2"/>
     </row>
-    <row r="712" spans="2:4">
+    <row r="712" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B712" s="1"/>
       <c r="D712" s="2"/>
     </row>
-    <row r="713" spans="2:4">
+    <row r="713" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B713" s="1"/>
       <c r="D713" s="2"/>
     </row>
-    <row r="714" spans="2:4">
+    <row r="714" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D714" s="2"/>
     </row>
-    <row r="715" spans="2:4">
+    <row r="715" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D715" s="2"/>
     </row>
-    <row r="716" spans="2:4">
+    <row r="716" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D716" s="2"/>
     </row>
-    <row r="717" spans="2:4">
+    <row r="717" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D717" s="2"/>
     </row>
-    <row r="718" spans="2:4">
+    <row r="718" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D718" s="2"/>
     </row>
-    <row r="719" spans="2:4">
+    <row r="719" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D719" s="2"/>
     </row>
-    <row r="720" spans="2:4">
+    <row r="720" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D720" s="2"/>
     </row>
   </sheetData>
